--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Development/lib/meja/testdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB7228-2E20-274F-BE4F-698208E126A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="8660" yWindow="1840" windowWidth="44960" windowHeight="18620" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Test" sheetId="1" r:id="rId1"/>
@@ -15,6 +21,7 @@
     <sheet name="Background" sheetId="6" r:id="rId6"/>
     <sheet name="Merged Cells" sheetId="7" r:id="rId7"/>
     <sheet name="Inline styles" sheetId="8" r:id="rId8"/>
+    <sheet name="Links" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="346">
   <si>
     <t>Left</t>
   </si>
@@ -1448,12 +1455,27 @@
   <si>
     <t>background-color</t>
   </si>
+  <si>
+    <t>unmerged</t>
+  </si>
+  <si>
+    <t>Wikipedia Startpage</t>
+  </si>
+  <si>
+    <t>Email-Links</t>
+  </si>
+  <si>
+    <t>Email Developer</t>
+  </si>
+  <si>
+    <t>Link to Websites</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1691,6 +1713,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="390">
@@ -4438,10 +4468,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="541">
+  <cellXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5670,16 +5701,7 @@
     <xf numFmtId="0" fontId="0" fillId="385" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="384" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="385" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="386" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="387" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="388" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -5773,8 +5795,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="386" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="388" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5851,14 +5884,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5896,9 +5932,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5931,9 +5967,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5966,9 +6019,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6141,23 +6211,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
     <col min="2" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6177,7 +6247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -6200,7 +6270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -6223,7 +6293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
@@ -6246,7 +6316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
@@ -6269,7 +6339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
@@ -6292,7 +6362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -6312,7 +6382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -6335,7 +6405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
@@ -6358,7 +6428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -6381,7 +6451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -6404,7 +6474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="70" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
         <v>4</v>
       </c>
@@ -6438,7 +6508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6448,155 +6518,155 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="6" width="25" customWidth="1"/>
-    <col min="7" max="1025" width="23.28515625" customWidth="1"/>
+    <col min="7" max="1025" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="506" t="s">
+    <row r="1" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="503" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="507" t="s">
+      <c r="C1" s="504" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="507" t="s">
+      <c r="D1" s="504" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="507" t="s">
+      <c r="E1" s="504" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="508" t="s">
+      <c r="F1" s="505" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="503" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="500" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="509" t="s">
+      <c r="B2" s="506" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="492" t="s">
+      <c r="C2" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="493" t="s">
+      <c r="D2" s="490" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="494" t="s">
+      <c r="E2" s="491" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="495" t="s">
+      <c r="F2" s="492" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="504" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="501" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="510" t="s">
+      <c r="B3" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="482" t="s">
+      <c r="C3" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="483" t="s">
+      <c r="D3" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="484" t="s">
+      <c r="E3" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="496" t="s">
+      <c r="F3" s="493" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="504" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="501" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="511" t="s">
+      <c r="B4" s="508" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="485" t="s">
+      <c r="C4" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="486" t="s">
+      <c r="D4" s="483" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="487" t="s">
+      <c r="E4" s="484" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="497" t="s">
+      <c r="F4" s="494" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="504" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="501" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="512" t="s">
+      <c r="B5" s="509" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="488" t="s">
+      <c r="C5" s="485" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="489" t="s">
+      <c r="D5" s="486" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="490" t="s">
+      <c r="E5" s="487" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="498" t="s">
+      <c r="F5" s="495" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="505" t="s">
+    <row r="6" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="502" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="513" t="s">
+      <c r="B6" s="510" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="499" t="s">
+      <c r="C6" s="496" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="500" t="s">
+      <c r="D6" s="497" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="501" t="s">
+      <c r="E6" s="498" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="502" t="s">
+      <c r="F6" s="499" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="491"/>
-      <c r="B7" s="491"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-      <c r="F7" s="491"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="514" t="s">
+    <row r="7" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="488"/>
+      <c r="B7" s="488"/>
+      <c r="C7" s="488"/>
+      <c r="D7" s="488"/>
+      <c r="E7" s="488"/>
+      <c r="F7" s="488"/>
+    </row>
+    <row r="8" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="511" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="515" t="s">
+      <c r="B8" s="512" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="516" t="s">
+      <c r="C8" s="513" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="517" t="s">
+      <c r="D8" s="514" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="518" t="s">
+      <c r="E8" s="515" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="519" t="s">
+      <c r="F8" s="516" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6611,14 +6681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6632,14 +6702,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="448"/>
-      <c r="D3" s="449"/>
-      <c r="F3" s="450"/>
-      <c r="H3" s="451"/>
-    </row>
-    <row r="4" spans="2:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="445"/>
+      <c r="D3" s="446"/>
+      <c r="F3" s="447"/>
+      <c r="H3" s="448"/>
+    </row>
+    <row r="4" spans="2:8" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6651,7 +6721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6661,86 +6731,86 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="527"/>
-      <c r="B1" s="528" t="s">
+    <row r="1" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="524"/>
+      <c r="B1" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="529" t="s">
+      <c r="C1" s="526" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="530" t="s">
+      <c r="D1" s="527" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="531" t="s">
+      <c r="E1" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="532" t="s">
+      <c r="F1" s="529" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="533" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="530" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="534" t="s">
+      <c r="B2" s="531" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="535" t="s">
+      <c r="C2" s="532" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="536" t="s">
+      <c r="D2" s="533" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="537" t="s">
+      <c r="E2" s="534" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="538" t="s">
+      <c r="F2" s="535" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="539" t="s">
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A3" s="536" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="520" t="s">
+      <c r="B3" s="517" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="453" t="s">
+      <c r="C3" s="450" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="454" t="s">
+      <c r="D3" s="451" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="455" t="s">
+      <c r="E3" s="452" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="521" t="s">
+      <c r="F3" s="518" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="540" t="s">
+    <row r="4" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="537" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="522" t="s">
+      <c r="B4" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="523" t="s">
+      <c r="C4" s="520" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="524" t="s">
+      <c r="D4" s="521" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="525" t="s">
+      <c r="E4" s="522" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="526" t="s">
+      <c r="F4" s="523" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6755,7 +6825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6763,13 +6833,13 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
@@ -6783,7 +6853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>30</v>
       </c>
@@ -6797,7 +6867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
         <v>32</v>
       </c>
@@ -6811,7 +6881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="41" t="s">
         <v>34</v>
       </c>
@@ -6825,7 +6895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="40" t="s">
         <v>36</v>
       </c>
@@ -6839,7 +6909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
         <v>38</v>
       </c>
@@ -6853,7 +6923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="48" t="s">
         <v>40</v>
       </c>
@@ -6867,7 +6937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="50" t="s">
         <v>42</v>
       </c>
@@ -6881,7 +6951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="53" t="s">
         <v>44</v>
       </c>
@@ -6895,7 +6965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="55" t="s">
         <v>46</v>
       </c>
@@ -6909,7 +6979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="58" t="s">
         <v>48</v>
       </c>
@@ -6923,7 +6993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="60" t="s">
         <v>50</v>
       </c>
@@ -6937,7 +7007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="63" t="s">
         <v>52</v>
       </c>
@@ -6951,7 +7021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="65" t="s">
         <v>54</v>
       </c>
@@ -6965,7 +7035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="68" t="s">
         <v>56</v>
       </c>
@@ -6979,7 +7049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
         <v>58</v>
       </c>
@@ -6993,7 +7063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="73" t="s">
         <v>60</v>
       </c>
@@ -7007,7 +7077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="75" t="s">
         <v>62</v>
       </c>
@@ -7021,7 +7091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="78" t="s">
         <v>64</v>
       </c>
@@ -7035,7 +7105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="80" t="s">
         <v>66</v>
       </c>
@@ -7049,7 +7119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="82" t="s">
         <v>68</v>
       </c>
@@ -7063,7 +7133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="85" t="s">
         <v>70</v>
       </c>
@@ -7077,7 +7147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="87" t="s">
         <v>72</v>
       </c>
@@ -7091,7 +7161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="89" t="s">
         <v>74</v>
       </c>
@@ -7105,7 +7175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="89" t="s">
         <v>76</v>
       </c>
@@ -7119,7 +7189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="91" t="s">
         <v>77</v>
       </c>
@@ -7133,7 +7203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="94" t="s">
         <v>79</v>
       </c>
@@ -7147,7 +7217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="97" t="s">
         <v>81</v>
       </c>
@@ -7161,7 +7231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="100" t="s">
         <v>83</v>
       </c>
@@ -7175,7 +7245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="103" t="s">
         <v>85</v>
       </c>
@@ -7189,7 +7259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="106" t="s">
         <v>87</v>
       </c>
@@ -7203,7 +7273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="109" t="s">
         <v>89</v>
       </c>
@@ -7217,7 +7287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="112" t="s">
         <v>91</v>
       </c>
@@ -7231,7 +7301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="115" t="s">
         <v>93</v>
       </c>
@@ -7245,7 +7315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="117" t="s">
         <v>95</v>
       </c>
@@ -7259,7 +7329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="120" t="s">
         <v>97</v>
       </c>
@@ -7273,7 +7343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="123" t="s">
         <v>99</v>
       </c>
@@ -7287,7 +7357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="126" t="s">
         <v>101</v>
       </c>
@@ -7301,7 +7371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="129" t="s">
         <v>103</v>
       </c>
@@ -7315,7 +7385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="132" t="s">
         <v>105</v>
       </c>
@@ -7329,7 +7399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="129" t="s">
         <v>107</v>
       </c>
@@ -7343,7 +7413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="135" t="s">
         <v>108</v>
       </c>
@@ -7357,7 +7427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="138" t="s">
         <v>110</v>
       </c>
@@ -7371,7 +7441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="141" t="s">
         <v>112</v>
       </c>
@@ -7385,7 +7455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="144" t="s">
         <v>114</v>
       </c>
@@ -7399,7 +7469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="147" t="s">
         <v>116</v>
       </c>
@@ -7413,7 +7483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="150" t="s">
         <v>118</v>
       </c>
@@ -7427,7 +7497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="153" t="s">
         <v>120</v>
       </c>
@@ -7441,7 +7511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="156" t="s">
         <v>122</v>
       </c>
@@ -7455,7 +7525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="159" t="s">
         <v>124</v>
       </c>
@@ -7469,7 +7539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="162" t="s">
         <v>126</v>
       </c>
@@ -7483,7 +7553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="162" t="s">
         <v>128</v>
       </c>
@@ -7497,7 +7567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="165" t="s">
         <v>129</v>
       </c>
@@ -7511,7 +7581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="167" t="s">
         <v>131</v>
       </c>
@@ -7525,7 +7595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="170" t="s">
         <v>133</v>
       </c>
@@ -7539,7 +7609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="173" t="s">
         <v>135</v>
       </c>
@@ -7553,7 +7623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="175" t="s">
         <v>137</v>
       </c>
@@ -7567,7 +7637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="175" t="s">
         <v>139</v>
       </c>
@@ -7581,7 +7651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="178" t="s">
         <v>140</v>
       </c>
@@ -7595,7 +7665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="181" t="s">
         <v>142</v>
       </c>
@@ -7609,7 +7679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="184" t="s">
         <v>144</v>
       </c>
@@ -7623,7 +7693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="186" t="s">
         <v>146</v>
       </c>
@@ -7637,7 +7707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="189" t="s">
         <v>148</v>
       </c>
@@ -7651,7 +7721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="191" t="s">
         <v>150</v>
       </c>
@@ -7665,7 +7735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="193" t="s">
         <v>152</v>
       </c>
@@ -7679,7 +7749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="195" t="s">
         <v>154</v>
       </c>
@@ -7693,7 +7763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="198" t="s">
         <v>156</v>
       </c>
@@ -7707,7 +7777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="41" t="s">
         <v>158</v>
       </c>
@@ -7721,7 +7791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="201" t="s">
         <v>159</v>
       </c>
@@ -7735,7 +7805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="203" t="s">
         <v>161</v>
       </c>
@@ -7749,7 +7819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="206" t="s">
         <v>163</v>
       </c>
@@ -7763,7 +7833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="209" t="s">
         <v>165</v>
       </c>
@@ -7777,7 +7847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="212" t="s">
         <v>167</v>
       </c>
@@ -7791,7 +7861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="214" t="s">
         <v>169</v>
       </c>
@@ -7805,7 +7875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="217" t="s">
         <v>171</v>
       </c>
@@ -7819,7 +7889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="219" t="s">
         <v>173</v>
       </c>
@@ -7833,7 +7903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="221" t="s">
         <v>175</v>
       </c>
@@ -7847,7 +7917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="224" t="s">
         <v>177</v>
       </c>
@@ -7861,7 +7931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="226" t="s">
         <v>179</v>
       </c>
@@ -7875,7 +7945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="229" t="s">
         <v>181</v>
       </c>
@@ -7889,7 +7959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="232" t="s">
         <v>183</v>
       </c>
@@ -7903,7 +7973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="234" t="s">
         <v>185</v>
       </c>
@@ -7917,7 +7987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="236" t="s">
         <v>187</v>
       </c>
@@ -7931,7 +8001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="238" t="s">
         <v>189</v>
       </c>
@@ -7945,7 +8015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="236" t="s">
         <v>191</v>
       </c>
@@ -7959,7 +8029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="241" t="s">
         <v>192</v>
       </c>
@@ -7973,7 +8043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="243" t="s">
         <v>194</v>
       </c>
@@ -7987,7 +8057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="246" t="s">
         <v>196</v>
       </c>
@@ -8001,7 +8071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="249" t="s">
         <v>198</v>
       </c>
@@ -8015,7 +8085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="252" t="s">
         <v>200</v>
       </c>
@@ -8029,7 +8099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="252" t="s">
         <v>202</v>
       </c>
@@ -8043,7 +8113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="255" t="s">
         <v>203</v>
       </c>
@@ -8057,7 +8127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="258" t="s">
         <v>205</v>
       </c>
@@ -8071,7 +8141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="260" t="s">
         <v>207</v>
       </c>
@@ -8085,7 +8155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="263" t="s">
         <v>209</v>
       </c>
@@ -8099,7 +8169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="265" t="s">
         <v>211</v>
       </c>
@@ -8113,7 +8183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="268" t="s">
         <v>213</v>
       </c>
@@ -8127,7 +8197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="270" t="s">
         <v>215</v>
       </c>
@@ -8141,7 +8211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="273" t="s">
         <v>217</v>
       </c>
@@ -8155,7 +8225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="276" t="s">
         <v>219</v>
       </c>
@@ -8169,7 +8239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="279" t="s">
         <v>221</v>
       </c>
@@ -8183,7 +8253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="282" t="s">
         <v>223</v>
       </c>
@@ -8197,7 +8267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="285" t="s">
         <v>225</v>
       </c>
@@ -8211,7 +8281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="288" t="s">
         <v>227</v>
       </c>
@@ -8225,7 +8295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="291" t="s">
         <v>229</v>
       </c>
@@ -8239,7 +8309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="294" t="s">
         <v>231</v>
       </c>
@@ -8253,7 +8323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="296" t="s">
         <v>233</v>
       </c>
@@ -8267,7 +8337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="298" t="s">
         <v>235</v>
       </c>
@@ -8281,7 +8351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="300" t="s">
         <v>237</v>
       </c>
@@ -8295,7 +8365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="303" t="s">
         <v>239</v>
       </c>
@@ -8309,7 +8379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="305" t="s">
         <v>241</v>
       </c>
@@ -8323,7 +8393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="308" t="s">
         <v>243</v>
       </c>
@@ -8337,7 +8407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="311" t="s">
         <v>245</v>
       </c>
@@ -8351,7 +8421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="314" t="s">
         <v>247</v>
       </c>
@@ -8365,7 +8435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="317" t="s">
         <v>249</v>
       </c>
@@ -8379,7 +8449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="320" t="s">
         <v>251</v>
       </c>
@@ -8393,7 +8463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="323" t="s">
         <v>253</v>
       </c>
@@ -8407,7 +8477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="326" t="s">
         <v>255</v>
       </c>
@@ -8421,7 +8491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="328" t="s">
         <v>257</v>
       </c>
@@ -8435,7 +8505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="330" t="s">
         <v>259</v>
       </c>
@@ -8449,7 +8519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="333" t="s">
         <v>261</v>
       </c>
@@ -8463,7 +8533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="335" t="s">
         <v>263</v>
       </c>
@@ -8477,7 +8547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="338" t="s">
         <v>265</v>
       </c>
@@ -8491,7 +8561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="340" t="s">
         <v>267</v>
       </c>
@@ -8505,7 +8575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="343" t="s">
         <v>269</v>
       </c>
@@ -8519,7 +8589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="346" t="s">
         <v>271</v>
       </c>
@@ -8533,7 +8603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="349" t="s">
         <v>273</v>
       </c>
@@ -8547,7 +8617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="352" t="s">
         <v>275</v>
       </c>
@@ -8561,7 +8631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="355" t="s">
         <v>277</v>
       </c>
@@ -8575,7 +8645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="358" t="s">
         <v>279</v>
       </c>
@@ -8589,7 +8659,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="360" t="s">
         <v>281</v>
       </c>
@@ -8603,7 +8673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="363" t="s">
         <v>283</v>
       </c>
@@ -8617,7 +8687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="365" t="s">
         <v>285</v>
       </c>
@@ -8631,7 +8701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="368" t="s">
         <v>287</v>
       </c>
@@ -8645,7 +8715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="368" t="s">
         <v>289</v>
       </c>
@@ -8659,7 +8729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="371" t="s">
         <v>290</v>
       </c>
@@ -8673,7 +8743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="373" t="s">
         <v>292</v>
       </c>
@@ -8687,7 +8757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="376" t="s">
         <v>294</v>
       </c>
@@ -8701,7 +8771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="379" t="s">
         <v>296</v>
       </c>
@@ -8715,7 +8785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="381" t="s">
         <v>298</v>
       </c>
@@ -8729,7 +8799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="383" t="s">
         <v>300</v>
       </c>
@@ -8743,7 +8813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="386" t="s">
         <v>302</v>
       </c>
@@ -8757,7 +8827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="389" t="s">
         <v>304</v>
       </c>
@@ -8771,7 +8841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="392" t="s">
         <v>306</v>
       </c>
@@ -8785,7 +8855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="394" t="s">
         <v>308</v>
       </c>
@@ -8799,7 +8869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="396" t="s">
         <v>310</v>
       </c>
@@ -8813,7 +8883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="399" t="s">
         <v>312</v>
       </c>
@@ -8834,14 +8904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="29"/>
       <c r="B1" s="402"/>
       <c r="C1" s="30"/>
@@ -8849,7 +8919,7 @@
       <c r="E1" s="403"/>
       <c r="F1" s="30"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="404"/>
       <c r="B2" s="405"/>
       <c r="C2" s="406"/>
@@ -8857,7 +8927,7 @@
       <c r="E2" s="408"/>
       <c r="F2" s="409"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
       <c r="B3" s="405"/>
       <c r="C3" s="32"/>
@@ -8865,7 +8935,7 @@
       <c r="E3" s="408"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="410"/>
       <c r="C4" s="30"/>
@@ -8873,7 +8943,7 @@
       <c r="E4" s="411"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="412"/>
       <c r="B5" s="413"/>
       <c r="C5" s="414"/>
@@ -8881,7 +8951,7 @@
       <c r="E5" s="416"/>
       <c r="F5" s="417"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="33"/>
       <c r="B6" s="418"/>
       <c r="C6" s="34"/>
@@ -8889,7 +8959,7 @@
       <c r="E6" s="419"/>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="420"/>
       <c r="C7" s="32"/>
@@ -8897,7 +8967,7 @@
       <c r="E7" s="421"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="422"/>
       <c r="B8" s="420"/>
       <c r="C8" s="423"/>
@@ -8905,7 +8975,7 @@
       <c r="E8" s="421"/>
       <c r="F8" s="425"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="420"/>
       <c r="C9" s="32"/>
@@ -8913,7 +8983,7 @@
       <c r="E9" s="421"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="426"/>
       <c r="C10" s="30"/>
@@ -8921,7 +8991,7 @@
       <c r="E10" s="427"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="428"/>
       <c r="B11" s="429"/>
       <c r="C11" s="430"/>
@@ -8929,7 +8999,7 @@
       <c r="E11" s="432"/>
       <c r="F11" s="433"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="33"/>
       <c r="B12" s="434"/>
       <c r="C12" s="34"/>
@@ -8937,7 +9007,7 @@
       <c r="E12" s="435"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
       <c r="B13" s="436"/>
       <c r="C13" s="32"/>
@@ -8945,7 +9015,7 @@
       <c r="E13" s="437"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="438"/>
       <c r="B14" s="436"/>
       <c r="C14" s="439"/>
@@ -8953,7 +9023,7 @@
       <c r="E14" s="437"/>
       <c r="F14" s="441"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="33"/>
       <c r="B15" s="442"/>
       <c r="C15" s="34"/>
@@ -8968,46 +9038,89 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="444" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="538" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="444"/>
-      <c r="C1" s="445"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="446" t="s">
+      <c r="B1" s="538"/>
+      <c r="C1" s="444" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="444" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="539" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="446"/>
-      <c r="C2" s="447" t="s">
+      <c r="B2" s="539"/>
+      <c r="C2" s="540" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="446"/>
-      <c r="B3" s="446"/>
-      <c r="C3" s="447"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="446"/>
-      <c r="B4" s="446"/>
-      <c r="C4" s="445"/>
+      <c r="D2" s="444" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="539"/>
+      <c r="B3" s="539"/>
+      <c r="C3" s="540"/>
+      <c r="D3" s="444" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="539"/>
+      <c r="B4" s="539"/>
+      <c r="C4" s="444" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="444" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="444" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="538" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="538"/>
+      <c r="D5" s="444" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="444" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="444" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="444" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="444" t="s">
+        <v>341</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9015,148 +9128,148 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="472" t="s">
+    <row r="1" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="469" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="473" t="s">
+      <c r="C1" s="470" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="473" t="s">
+      <c r="D1" s="470" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="474" t="s">
+      <c r="E1" s="471" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="475" t="s">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.2">
+      <c r="A2" s="472" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="476" t="s">
+      <c r="B2" s="473" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="477" t="s">
+      <c r="C2" s="474" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="478" t="s">
+      <c r="D2" s="475" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="479" t="s">
+      <c r="E2" s="476" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="480" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="477" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="459" t="s">
+      <c r="B3" s="456" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="456" t="s">
+      <c r="C3" s="453" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="456" t="s">
+      <c r="D3" s="453" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="460" t="s">
+      <c r="E3" s="457" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="480" t="s">
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="477" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="461" t="s">
+      <c r="B4" s="458" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="457" t="s">
+      <c r="C4" s="454" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="456" t="s">
+      <c r="D4" s="453" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="462" t="s">
+      <c r="E4" s="459" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="480" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="477" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="463" t="s">
+      <c r="B5" s="460" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="456" t="s">
+      <c r="C5" s="453" t="s">
         <v>322</v>
       </c>
-      <c r="D5" s="456" t="s">
+      <c r="D5" s="453" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="464" t="s">
+      <c r="E5" s="461" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="480" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="477" t="s">
         <v>334</v>
       </c>
-      <c r="B6" s="465" t="s">
+      <c r="B6" s="462" t="s">
         <v>322</v>
       </c>
-      <c r="C6" s="452" t="s">
+      <c r="C6" s="449" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="456" t="s">
+      <c r="D6" s="453" t="s">
         <v>335</v>
       </c>
-      <c r="E6" s="466" t="s">
+      <c r="E6" s="463" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="480" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="477" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="467" t="s">
+      <c r="B7" s="464" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="458" t="s">
+      <c r="C7" s="455" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="456" t="s">
+      <c r="D7" s="453" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="468" t="s">
+      <c r="E7" s="465" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="481" t="s">
+    <row r="8" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="478" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="469" t="s">
+      <c r="B8" s="466" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="470" t="s">
+      <c r="C8" s="467" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="470" t="s">
+      <c r="D8" s="467" t="s">
         <v>322</v>
       </c>
-      <c r="E8" s="471" t="s">
+      <c r="E8" s="468" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9168,4 +9281,43 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740A3BD5-63EB-6543-A84C-9EAD8F792455}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="541" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="541" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B7AE0023-61CA-7C48-8A55-16A22EB4C539}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{2827D3D1-7B7E-DE46-AA84-AD96A09CDE9E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Development/lib/meja/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB7228-2E20-274F-BE4F-698208E126A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30568A89-F03A-014E-A62A-8150C6C7BAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="1840" windowWidth="44960" windowHeight="18620" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16660" yWindow="3440" windowWidth="44960" windowHeight="18620" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Test" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="350">
   <si>
     <t>Left</t>
   </si>
@@ -1468,7 +1468,19 @@
     <t>Email Developer</t>
   </si>
   <si>
-    <t>Link to Websites</t>
+    <t>Links to files</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>test.xlsx</t>
+  </si>
+  <si>
+    <t>test.xls</t>
+  </si>
+  <si>
+    <t>Links to Websites</t>
   </si>
 </sst>
 </file>
@@ -5795,6 +5807,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="386" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5804,7 +5817,6 @@
     <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -9048,10 +9060,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="538" t="s">
+      <c r="A1" s="539" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="538"/>
+      <c r="B1" s="539"/>
       <c r="C1" s="444" t="s">
         <v>341</v>
       </c>
@@ -9060,11 +9072,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="539" t="s">
+      <c r="A2" s="540" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="539"/>
-      <c r="C2" s="540" t="s">
+      <c r="B2" s="540"/>
+      <c r="C2" s="541" t="s">
         <v>316</v>
       </c>
       <c r="D2" s="444" t="s">
@@ -9072,16 +9084,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="539"/>
-      <c r="B3" s="539"/>
-      <c r="C3" s="540"/>
+      <c r="A3" s="540"/>
+      <c r="B3" s="540"/>
+      <c r="C3" s="541"/>
       <c r="D3" s="444" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="539"/>
-      <c r="B4" s="539"/>
+      <c r="A4" s="540"/>
+      <c r="B4" s="540"/>
       <c r="C4" s="444" t="s">
         <v>341</v>
       </c>
@@ -9093,10 +9105,10 @@
       <c r="A5" s="444" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="538" t="s">
+      <c r="B5" s="539" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="538"/>
+      <c r="C5" s="539"/>
       <c r="D5" s="444" t="s">
         <v>341</v>
       </c>
@@ -9285,10 +9297,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740A3BD5-63EB-6543-A84C-9EAD8F792455}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9297,26 +9309,43 @@
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="541" t="s">
+      <c r="B1" s="538" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="538" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="538" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="538" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>343</v>
       </c>
-      <c r="B2" s="541" t="s">
+      <c r="B3" s="538" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B7AE0023-61CA-7C48-8A55-16A22EB4C539}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{2827D3D1-7B7E-DE46-AA84-AD96A09CDE9E}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{657FDB47-A01F-1F46-A2B3-CD05320173AD}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{2D58A05B-5EE8-F640-A0BC-F32D67A83C6A}"/>
+    <hyperlink ref="D1" r:id="rId3" xr:uid="{7D8DD879-ED6E-9C4F-AF78-EBB7D0189BC4}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{DE926EEC-ED32-0843-8687-CB46A2269B1F}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{55C10AD2-B46E-CA4F-BD5F-D0A096314524}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Development/lib/meja/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30568A89-F03A-014E-A62A-8150C6C7BAB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A92E87-EE9C-BD40-B9B3-E7E570C1E4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="3440" windowWidth="44960" windowHeight="18620" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="3440" windowWidth="44960" windowHeight="18620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Test" sheetId="1" r:id="rId1"/>
@@ -1092,7 +1092,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>is</t>
     </r>
@@ -1111,7 +1111,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">This </t>
     </r>
@@ -1119,7 +1119,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t>is</t>
     </r>
@@ -1127,7 +1127,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Courier New"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> a text.</t>
     </r>
@@ -1674,12 +1674,12 @@
     <font>
       <sz val="10"/>
       <name val="Courier New"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -6226,11 +6226,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6394,7 +6394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>8</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
         <v>4</v>
       </c>
@@ -9299,7 +9299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740A3BD5-63EB-6543-A84C-9EAD8F792455}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Development/lib/meja/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A92E87-EE9C-BD40-B9B3-E7E570C1E4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A56CC-C405-0F43-82C5-0D986ABDC94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="3440" windowWidth="44960" windowHeight="18620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="3440" windowWidth="44960" windowHeight="18620" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Test" sheetId="1" r:id="rId1"/>
@@ -1487,7 +1487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1730,6 +1730,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -4484,7 +4492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="543">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5817,6 +5825,7 @@
     <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -6226,7 +6235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9299,8 +9308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740A3BD5-63EB-6543-A84C-9EAD8F792455}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9316,7 +9325,7 @@
       <c r="B1" s="538" t="s">
         <v>346</v>
       </c>
-      <c r="C1" s="538" t="s">
+      <c r="C1" s="542" t="s">
         <v>347</v>
       </c>
       <c r="D1" s="538" t="s">

--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Development/lib/meja/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axelhowind/Projects/meja/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A56CC-C405-0F43-82C5-0D986ABDC94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B73D1-3691-3745-B7F7-51DB459BDC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="3440" windowWidth="44960" windowHeight="18620" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="67200" windowHeight="35800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Test" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,19 @@
     <sheet name="Inline styles" sheetId="8" r:id="rId8"/>
     <sheet name="Links" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -33,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="355">
   <si>
     <t>Left</t>
   </si>
@@ -1481,6 +1492,21 @@
   </si>
   <si>
     <t>Links to Websites</t>
+  </si>
+  <si>
+    <t>Top (wrap)</t>
+  </si>
+  <si>
+    <t>Center (wrap)</t>
+  </si>
+  <si>
+    <t>Bottom (wrap)</t>
+  </si>
+  <si>
+    <t>Justified (wrap)</t>
+  </si>
+  <si>
+    <t>Distributed (wrap)</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1769,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="390">
+  <fills count="391">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4075,6 +4101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4492,1213 +4524,1136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="543">
+  <cellXfs count="596">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="67" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="69" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="70" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="76" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="94" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="95" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="96" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="97" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="98" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="99" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="100" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="101" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="102" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="103" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="104" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="106" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="107" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="108" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="109" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="110" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="111" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="112" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="113" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="114" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="115" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="116" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="117" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="118" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="119" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="120" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="121" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="122" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="123" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="124" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="125" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="126" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="127" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="128" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="129" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="130" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="131" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="132" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="133" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="134" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="135" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="136" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="137" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="138" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="139" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="140" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="141" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="142" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="143" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="144" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="145" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="146" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="147" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="148" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="149" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="150" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="151" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="152" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="153" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="154" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="155" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="156" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="157" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="158" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="159" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="160" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="161" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="162" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="163" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="164" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="165" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="166" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="167" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="168" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="169" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="170" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="171" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="172" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="173" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="174" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="175" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="176" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="177" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="178" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="179" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="180" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="181" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="182" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="183" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="184" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="185" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="186" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="187" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="188" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="189" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="190" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="191" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="192" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="193" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="194" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="195" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="196" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="197" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="198" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="199" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="200" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="201" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="202" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="203" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="204" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="205" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="206" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="207" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="208" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="209" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="210" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="211" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="212" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="213" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="214" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="215" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="216" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="217" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="218" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="219" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="220" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="221" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="222" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="223" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="224" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="225" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="226" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="227" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="228" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="229" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="230" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="231" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="232" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="233" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="234" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="235" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="236" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="237" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="238" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="239" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="240" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="241" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="242" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="243" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="244" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="245" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="246" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="247" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="248" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="249" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="250" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="251" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="252" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="253" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="254" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="255" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="256" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="257" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="258" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="259" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="260" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="261" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="262" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="263" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="264" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="265" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="266" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="267" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="268" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="269" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="270" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="271" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="272" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="273" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="274" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="275" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="276" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="277" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="278" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="279" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="280" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="281" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="282" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="283" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="284" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="285" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="286" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="287" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="288" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="289" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="290" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="291" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="292" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="293" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="294" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="295" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="296" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="297" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="298" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="299" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="300" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="301" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="302" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="303" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="304" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="305" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="306" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="307" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="308" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="309" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="310" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="311" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="312" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="313" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="314" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="315" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="316" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="317" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="318" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="319" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="320" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="321" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="322" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="323" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="324" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="325" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="326" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="327" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="328" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="329" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="330" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="331" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="332" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="333" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="334" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="335" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="336" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="337" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="338" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="339" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="340" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="341" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="342" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="343" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="344" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="345" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="346" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="347" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="348" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="349" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="350" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="351" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="352" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="353" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="354" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="355" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="356" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="357" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="358" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="359" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="360" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="361" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="362" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="363" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="364" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="365" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="366" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="367" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="368" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="369" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="370" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="371" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="372" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="373" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="374" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="375" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="138" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="147" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="149" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="150" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="151" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="152" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="153" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="154" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="155" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="157" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="158" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="178" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="179" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="180" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="181" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="182" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="183" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="184" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="185" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="186" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="187" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="188" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="189" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="190" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="191" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="192" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="193" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="194" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="195" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="196" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="197" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="198" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="199" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="200" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="201" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="202" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="203" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="204" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="205" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="206" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="207" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="208" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="209" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="210" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="211" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="212" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="213" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="214" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="215" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="216" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="217" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="218" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="219" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="220" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="221" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="222" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="223" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="224" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="225" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="226" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="227" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="228" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="229" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="230" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="231" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="232" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="233" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="234" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="235" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="236" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="237" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="238" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="239" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="240" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="241" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="242" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="243" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="244" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="245" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="246" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="247" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="248" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="249" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="250" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="251" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="252" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="253" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="254" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="255" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="256" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="257" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="258" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="259" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="260" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="261" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="262" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="263" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="264" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="265" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="266" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="267" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="268" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="269" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="270" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="271" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="272" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="273" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="274" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="275" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="276" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="277" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="278" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="279" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="280" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="281" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="282" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="283" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="284" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="285" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="286" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="287" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="288" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="289" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="290" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="291" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="292" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="293" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="294" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="295" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="296" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="297" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="298" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="299" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="300" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="301" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="302" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="303" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="304" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="305" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="306" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="307" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="308" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="309" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="310" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="311" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="312" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="313" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="314" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="315" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="316" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="317" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="318" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="319" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="320" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="321" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="322" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="323" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="324" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="325" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="326" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="327" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="328" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="329" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="330" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="331" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="332" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="333" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="334" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="335" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="336" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="337" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="338" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="339" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="340" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="341" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="342" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="343" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="344" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="345" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="346" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="347" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="348" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="349" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="350" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="351" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="352" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="353" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="354" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="355" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="356" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="357" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="358" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="359" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="360" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="361" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="362" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="363" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="364" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="365" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="366" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="367" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="368" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="369" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="370" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="371" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="372" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="373" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="374" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="375" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="376" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="377" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="376" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="376" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="376" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="376" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="377" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="377" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="377" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="377" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="378" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="379" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="378" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="378" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="378" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="378" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="379" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="379" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="379" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="379" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="378" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="379" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="380" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="381" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="380" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="381" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="380" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="380" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="381" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5706,15 +5661,15 @@
     <xf numFmtId="0" fontId="0" fillId="382" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="383" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="382" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="382" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="382" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="382" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="383" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="383" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="383" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="383" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="382" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="383" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="384" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="385" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="385" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="384" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="384" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="385" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5743,9 +5698,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5765,7 +5720,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5789,11 +5743,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5801,14 +5755,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5816,6 +5770,10 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="386" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5825,7 +5783,236 @@
     <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="390" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="389" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="384" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5913,9 +6100,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5953,9 +6140,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5988,26 +6175,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6040,26 +6210,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6233,13 +6386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6249,272 +6402,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="569"/>
+      <c r="B1" s="569" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="570" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="571" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="572" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="573" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="573" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="574" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="575" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="576" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="577" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="578" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="579" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="579" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="580" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="581" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="582" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="583" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="584" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="585" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="585" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="569" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="587" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="588" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="589" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="590" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="590" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="587" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="588" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="589" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="590" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="590" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="591" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="592" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="593" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="594" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="595" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="590" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="590" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="543"/>
+      <c r="B8" s="543" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="544" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="545" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="546" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="547" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="547" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="548" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="549" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="550" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="551" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="552" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="553" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="553" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="554" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="555" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="512" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="556" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="557" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="558" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="558" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="543" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="559" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="561" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="562" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="563" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="563" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="559" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="561" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="562" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="563" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="563" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="564" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="565" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="566" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="567" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="568" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="563" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="563" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="516"/>
+      <c r="B15" s="516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="517" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="518" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="519" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="520" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="520" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="521" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="522" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="523" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="524" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="525" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="526" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="526" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="527" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="528" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="529" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="530" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="531" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="532" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="532" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="516" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="533" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="534" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="535" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="536" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="537" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="537" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="516" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" s="533" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="534" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="535" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="536" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="537" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="537" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="538" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" s="539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="540" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="541" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="542" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="537" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="537" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6532,7 +6823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6547,147 +6838,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="503" t="s">
+      <c r="B1" s="475" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="504" t="s">
+      <c r="C1" s="476" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="504" t="s">
+      <c r="D1" s="476" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="504" t="s">
+      <c r="E1" s="476" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="505" t="s">
+      <c r="F1" s="477" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="500" t="s">
+      <c r="A2" s="472" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="506" t="s">
+      <c r="B2" s="478" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="489" t="s">
+      <c r="C2" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="490" t="s">
+      <c r="D2" s="462" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="491" t="s">
+      <c r="E2" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="492" t="s">
+      <c r="F2" s="464" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="501" t="s">
+      <c r="A3" s="473" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="479" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="479" t="s">
+      <c r="C3" s="452" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="480" t="s">
+      <c r="D3" s="453" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="481" t="s">
+      <c r="E3" s="454" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="493" t="s">
+      <c r="F3" s="465" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="501" t="s">
+      <c r="A4" s="473" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="508" t="s">
+      <c r="B4" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="482" t="s">
+      <c r="C4" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="483" t="s">
+      <c r="D4" s="456" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="484" t="s">
+      <c r="E4" s="457" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="494" t="s">
+      <c r="F4" s="466" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="501" t="s">
+      <c r="A5" s="473" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="509" t="s">
+      <c r="B5" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="485" t="s">
+      <c r="C5" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="486" t="s">
+      <c r="D5" s="459" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="487" t="s">
+      <c r="E5" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="495" t="s">
+      <c r="F5" s="467" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="502" t="s">
+      <c r="A6" s="474" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="510" t="s">
+      <c r="B6" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="496" t="s">
+      <c r="C6" s="468" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="497" t="s">
+      <c r="D6" s="469" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="498" t="s">
+      <c r="E6" s="470" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="499" t="s">
+      <c r="F6" s="471" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="488"/>
-      <c r="B7" s="488"/>
-      <c r="C7" s="488"/>
-      <c r="D7" s="488"/>
-      <c r="E7" s="488"/>
-      <c r="F7" s="488"/>
-    </row>
+    <row r="7" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="511" t="s">
+      <c r="A8" s="483" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="512" t="s">
+      <c r="B8" s="484" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="513" t="s">
+      <c r="C8" s="485" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="514" t="s">
+      <c r="D8" s="486" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="515" t="s">
+      <c r="E8" s="487" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="516" t="s">
+      <c r="F8" s="488" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6725,10 +7009,10 @@
     </row>
     <row r="2" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="445"/>
-      <c r="D3" s="446"/>
-      <c r="F3" s="447"/>
-      <c r="H3" s="448"/>
+      <c r="B3" s="418"/>
+      <c r="D3" s="419"/>
+      <c r="F3" s="420"/>
+      <c r="H3" s="421"/>
     </row>
     <row r="4" spans="2:8" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -6758,80 +7042,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="524"/>
-      <c r="B1" s="525" t="s">
+      <c r="A1" s="496"/>
+      <c r="B1" s="497" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="526" t="s">
+      <c r="C1" s="498" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="527" t="s">
+      <c r="D1" s="499" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="528" t="s">
+      <c r="E1" s="500" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="529" t="s">
+      <c r="F1" s="501" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="530" t="s">
+      <c r="A2" s="502" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="531" t="s">
+      <c r="B2" s="503" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="532" t="s">
+      <c r="C2" s="504" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="533" t="s">
+      <c r="D2" s="505" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="534" t="s">
+      <c r="E2" s="506" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="535" t="s">
+      <c r="F2" s="507" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="536" t="s">
+      <c r="A3" s="508" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="517" t="s">
+      <c r="B3" s="489" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="450" t="s">
+      <c r="C3" s="423" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="451" t="s">
+      <c r="D3" s="424" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="452" t="s">
+      <c r="E3" s="425" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="518" t="s">
+      <c r="F3" s="490" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="537" t="s">
+      <c r="A4" s="509" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="519" t="s">
+      <c r="B4" s="491" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="520" t="s">
+      <c r="C4" s="492" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="521" t="s">
+      <c r="D4" s="493" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="522" t="s">
+      <c r="E4" s="494" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="523" t="s">
+      <c r="F4" s="495" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6861,2060 +7145,2060 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="48" t="s">
+      <c r="C7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="52" t="s">
+      <c r="C8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="58" t="s">
+      <c r="C11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="62" t="s">
+      <c r="C12" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="67" t="s">
+      <c r="C14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="68" t="s">
+      <c r="C15" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="72" t="s">
+      <c r="C16" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="73" t="s">
+      <c r="C17" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="77" t="s">
+      <c r="C18" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="40" t="s">
+      <c r="C19" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="40" t="s">
+      <c r="C20" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="84" t="s">
+      <c r="C21" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="40" t="s">
+      <c r="C22" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="40" t="s">
+      <c r="C23" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="40" t="s">
+      <c r="C24" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="40" t="s">
+      <c r="C25" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="93" t="s">
+      <c r="C26" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="66" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="96" t="s">
+      <c r="C27" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="69" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="99" t="s">
+      <c r="C28" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="72" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="102" t="s">
+      <c r="C29" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="75" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="105" t="s">
+      <c r="C30" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="78" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="108" t="s">
+      <c r="C31" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="81" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="109" t="s">
+      <c r="B32" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="111" t="s">
+      <c r="C32" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="84" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="113" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="114" t="s">
+      <c r="C33" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="87" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="40" t="s">
+      <c r="C34" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="118" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="119" t="s">
+      <c r="C35" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="92" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="122" t="s">
+      <c r="C36" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="95" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="123" t="s">
+      <c r="A37" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="124" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="125" t="s">
+      <c r="C37" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="98" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="126" t="s">
+      <c r="B38" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="128" t="s">
+      <c r="C38" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="101" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="129" t="s">
+      <c r="B39" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="131" t="s">
+      <c r="C39" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="104" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="132" t="s">
+      <c r="A40" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="132" t="s">
+      <c r="B40" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="133" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="134" t="s">
+      <c r="C40" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="129" t="s">
+      <c r="A41" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="130" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="131" t="s">
+      <c r="C41" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="104" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="135" t="s">
+      <c r="A42" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="135" t="s">
+      <c r="B42" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="136" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="137" t="s">
+      <c r="C42" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="110" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="138" t="s">
+      <c r="A43" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="138" t="s">
+      <c r="B43" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="139" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="140" t="s">
+      <c r="C43" s="112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="113" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="141" t="s">
+      <c r="B44" s="114" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="143" t="s">
+      <c r="C44" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="116" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="144" t="s">
+      <c r="A45" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="144" t="s">
+      <c r="B45" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="145" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="146" t="s">
+      <c r="C45" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="119" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="147" t="s">
+      <c r="A46" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="147" t="s">
+      <c r="B46" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="148" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="149" t="s">
+      <c r="C46" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="122" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="150" t="s">
+      <c r="A47" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="150" t="s">
+      <c r="B47" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="151" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="152" t="s">
+      <c r="C47" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="125" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="153" t="s">
+      <c r="A48" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="153" t="s">
+      <c r="B48" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="154" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="155" t="s">
+      <c r="C48" s="127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="128" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="156" t="s">
+      <c r="A49" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="157" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="158" t="s">
+      <c r="C49" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="131" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="159" t="s">
+      <c r="A50" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="159" t="s">
+      <c r="B50" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="160" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="161" t="s">
+      <c r="C50" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="134" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="162" t="s">
+      <c r="A51" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="162" t="s">
+      <c r="B51" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="163" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="164" t="s">
+      <c r="C51" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="137" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="162" t="s">
+      <c r="A52" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="162" t="s">
+      <c r="B52" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="163" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="164" t="s">
+      <c r="C52" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="137" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="165" t="s">
+      <c r="A53" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="165" t="s">
+      <c r="B53" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="73" t="s">
+      <c r="C53" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="167" t="s">
+      <c r="A54" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="167" t="s">
+      <c r="B54" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="169" t="s">
+      <c r="C54" s="141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="142" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="170" t="s">
+      <c r="A55" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="170" t="s">
+      <c r="B55" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="171" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="172" t="s">
+      <c r="C55" s="144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="145" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="173" t="s">
+      <c r="A56" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="173" t="s">
+      <c r="B56" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="174" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="73" t="s">
+      <c r="C56" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="175" t="s">
+      <c r="A57" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="175" t="s">
+      <c r="B57" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="177" t="s">
+      <c r="C57" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="150" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="175" t="s">
+      <c r="A58" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="175" t="s">
+      <c r="B58" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="177" t="s">
+      <c r="C58" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="150" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="178" t="s">
+      <c r="A59" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="178" t="s">
+      <c r="B59" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="179" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="180" t="s">
+      <c r="C59" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="153" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="181" t="s">
+      <c r="A60" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="181" t="s">
+      <c r="B60" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="182" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="183" t="s">
+      <c r="C60" s="155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="156" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="184" t="s">
+      <c r="A61" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="184" t="s">
+      <c r="B61" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="40" t="s">
+      <c r="C61" s="158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="186" t="s">
+      <c r="A62" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="186" t="s">
+      <c r="B62" s="159" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="187" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="188" t="s">
+      <c r="C62" s="160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="161" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="189" t="s">
+      <c r="A63" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="189" t="s">
+      <c r="B63" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="190" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="40" t="s">
+      <c r="C63" s="163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="191" t="s">
+      <c r="A64" s="164" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="191" t="s">
+      <c r="B64" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="192" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="40" t="s">
+      <c r="C64" s="165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="193" t="s">
+      <c r="A65" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="193" t="s">
+      <c r="B65" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="194" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="63" t="s">
+      <c r="C65" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="195" t="s">
+      <c r="A66" s="168" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="195" t="s">
+      <c r="B66" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="196" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="197" t="s">
+      <c r="C66" s="169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="170" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="198" t="s">
+      <c r="A67" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="198" t="s">
+      <c r="B67" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="199" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="200" t="s">
+      <c r="C67" s="172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="173" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="43" t="s">
+      <c r="C68" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="201" t="s">
+      <c r="A69" s="174" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="201" t="s">
+      <c r="B69" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="202" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="40" t="s">
+      <c r="C69" s="175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="203" t="s">
+      <c r="A70" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="203" t="s">
+      <c r="B70" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="205" t="s">
+      <c r="C70" s="177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="178" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="206" t="s">
+      <c r="A71" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="206" t="s">
+      <c r="B71" s="179" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="208" t="s">
+      <c r="C71" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="181" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="209" t="s">
+      <c r="A72" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="209" t="s">
+      <c r="B72" s="182" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="210" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="211" t="s">
+      <c r="C72" s="183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="184" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="212" t="s">
+      <c r="A73" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="212" t="s">
+      <c r="B73" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="213" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="40" t="s">
+      <c r="C73" s="186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="214" t="s">
+      <c r="A74" s="187" t="s">
         <v>169</v>
       </c>
-      <c r="B74" s="214" t="s">
+      <c r="B74" s="187" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="216" t="s">
+      <c r="C74" s="188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="189" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="217" t="s">
+      <c r="B75" s="190" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="218" t="s">
-        <v>28</v>
-      </c>
-      <c r="D75" s="40" t="s">
+      <c r="C75" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="219" t="s">
+      <c r="A76" s="192" t="s">
         <v>173</v>
       </c>
-      <c r="B76" s="219" t="s">
+      <c r="B76" s="192" t="s">
         <v>174</v>
       </c>
-      <c r="C76" s="220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="40" t="s">
+      <c r="C76" s="193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="221" t="s">
+      <c r="A77" s="194" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="221" t="s">
+      <c r="B77" s="194" t="s">
         <v>176</v>
       </c>
-      <c r="C77" s="222" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="223" t="s">
+      <c r="C77" s="195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="196" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="224" t="s">
+      <c r="A78" s="197" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="224" t="s">
+      <c r="B78" s="197" t="s">
         <v>178</v>
       </c>
-      <c r="C78" s="225" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="40" t="s">
+      <c r="C78" s="198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="226" t="s">
+      <c r="A79" s="199" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="226" t="s">
+      <c r="B79" s="199" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="227" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="228" t="s">
+      <c r="C79" s="200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="201" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="229" t="s">
+      <c r="A80" s="202" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="229" t="s">
+      <c r="B80" s="202" t="s">
         <v>182</v>
       </c>
-      <c r="C80" s="230" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="231" t="s">
+      <c r="C80" s="203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="204" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="232" t="s">
+      <c r="A81" s="205" t="s">
         <v>183</v>
       </c>
-      <c r="B81" s="232" t="s">
+      <c r="B81" s="205" t="s">
         <v>184</v>
       </c>
-      <c r="C81" s="233" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="40" t="s">
+      <c r="C81" s="206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="234" t="s">
+      <c r="A82" s="207" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="234" t="s">
+      <c r="B82" s="207" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="235" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="40" t="s">
+      <c r="C82" s="208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="236" t="s">
+      <c r="A83" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="B83" s="236" t="s">
+      <c r="B83" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="C83" s="237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="40" t="s">
+      <c r="C83" s="210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="238" t="s">
+      <c r="A84" s="211" t="s">
         <v>189</v>
       </c>
-      <c r="B84" s="238" t="s">
+      <c r="B84" s="211" t="s">
         <v>190</v>
       </c>
-      <c r="C84" s="239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="240" t="s">
+      <c r="C84" s="212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="213" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="236" t="s">
+      <c r="A85" s="209" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="236" t="s">
+      <c r="B85" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="40" t="s">
+      <c r="C85" s="210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="241" t="s">
+      <c r="A86" s="214" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="241" t="s">
+      <c r="B86" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="242" t="s">
-        <v>28</v>
-      </c>
-      <c r="D86" s="40" t="s">
+      <c r="C86" s="215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="243" t="s">
+      <c r="A87" s="216" t="s">
         <v>194</v>
       </c>
-      <c r="B87" s="243" t="s">
+      <c r="B87" s="216" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="244" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87" s="245" t="s">
+      <c r="C87" s="217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="218" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="246" t="s">
+      <c r="A88" s="219" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="246" t="s">
+      <c r="B88" s="219" t="s">
         <v>197</v>
       </c>
-      <c r="C88" s="247" t="s">
-        <v>28</v>
-      </c>
-      <c r="D88" s="248" t="s">
+      <c r="C88" s="220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="221" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="249" t="s">
+      <c r="A89" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="B89" s="249" t="s">
+      <c r="B89" s="222" t="s">
         <v>199</v>
       </c>
-      <c r="C89" s="250" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="251" t="s">
+      <c r="C89" s="223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="224" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="252" t="s">
+      <c r="A90" s="225" t="s">
         <v>200</v>
       </c>
-      <c r="B90" s="252" t="s">
+      <c r="B90" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="C90" s="253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="254" t="s">
+      <c r="C90" s="226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="227" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="252" t="s">
+      <c r="A91" s="225" t="s">
         <v>202</v>
       </c>
-      <c r="B91" s="252" t="s">
+      <c r="B91" s="225" t="s">
         <v>201</v>
       </c>
-      <c r="C91" s="253" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="254" t="s">
+      <c r="C91" s="226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="227" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="255" t="s">
+      <c r="A92" s="228" t="s">
         <v>203</v>
       </c>
-      <c r="B92" s="255" t="s">
+      <c r="B92" s="228" t="s">
         <v>204</v>
       </c>
-      <c r="C92" s="256" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="257" t="s">
+      <c r="C92" s="229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="230" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="258" t="s">
+      <c r="A93" s="231" t="s">
         <v>205</v>
       </c>
-      <c r="B93" s="258" t="s">
+      <c r="B93" s="231" t="s">
         <v>206</v>
       </c>
-      <c r="C93" s="259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" s="40" t="s">
+      <c r="C93" s="232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="260" t="s">
+      <c r="A94" s="233" t="s">
         <v>207</v>
       </c>
-      <c r="B94" s="260" t="s">
+      <c r="B94" s="233" t="s">
         <v>208</v>
       </c>
-      <c r="C94" s="261" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" s="262" t="s">
+      <c r="C94" s="234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="235" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="263" t="s">
+      <c r="A95" s="236" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="263" t="s">
+      <c r="B95" s="236" t="s">
         <v>210</v>
       </c>
-      <c r="C95" s="264" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" s="40" t="s">
+      <c r="C95" s="237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="265" t="s">
+      <c r="A96" s="238" t="s">
         <v>211</v>
       </c>
-      <c r="B96" s="265" t="s">
+      <c r="B96" s="238" t="s">
         <v>212</v>
       </c>
-      <c r="C96" s="266" t="s">
-        <v>28</v>
-      </c>
-      <c r="D96" s="267" t="s">
+      <c r="C96" s="239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="240" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="268" t="s">
+      <c r="A97" s="241" t="s">
         <v>213</v>
       </c>
-      <c r="B97" s="268" t="s">
+      <c r="B97" s="241" t="s">
         <v>214</v>
       </c>
-      <c r="C97" s="269" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="68" t="s">
+      <c r="C97" s="242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="270" t="s">
+      <c r="A98" s="243" t="s">
         <v>215</v>
       </c>
-      <c r="B98" s="270" t="s">
+      <c r="B98" s="243" t="s">
         <v>216</v>
       </c>
-      <c r="C98" s="271" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" s="272" t="s">
+      <c r="C98" s="244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="245" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="273" t="s">
+      <c r="A99" s="246" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="273" t="s">
+      <c r="B99" s="246" t="s">
         <v>218</v>
       </c>
-      <c r="C99" s="274" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="275" t="s">
+      <c r="C99" s="247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="248" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="276" t="s">
+      <c r="A100" s="249" t="s">
         <v>219</v>
       </c>
-      <c r="B100" s="276" t="s">
+      <c r="B100" s="249" t="s">
         <v>220</v>
       </c>
-      <c r="C100" s="277" t="s">
-        <v>28</v>
-      </c>
-      <c r="D100" s="278" t="s">
+      <c r="C100" s="250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="251" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="279" t="s">
+      <c r="A101" s="252" t="s">
         <v>221</v>
       </c>
-      <c r="B101" s="279" t="s">
+      <c r="B101" s="252" t="s">
         <v>222</v>
       </c>
-      <c r="C101" s="280" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="281" t="s">
+      <c r="C101" s="253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="254" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="282" t="s">
+      <c r="A102" s="255" t="s">
         <v>223</v>
       </c>
-      <c r="B102" s="282" t="s">
+      <c r="B102" s="255" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="283" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" s="284" t="s">
+      <c r="C102" s="256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="257" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="285" t="s">
+      <c r="A103" s="258" t="s">
         <v>225</v>
       </c>
-      <c r="B103" s="285" t="s">
+      <c r="B103" s="258" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="286" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103" s="287" t="s">
+      <c r="C103" s="259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="260" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="288" t="s">
+      <c r="A104" s="261" t="s">
         <v>227</v>
       </c>
-      <c r="B104" s="288" t="s">
+      <c r="B104" s="261" t="s">
         <v>228</v>
       </c>
-      <c r="C104" s="289" t="s">
-        <v>28</v>
-      </c>
-      <c r="D104" s="290" t="s">
+      <c r="C104" s="262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="263" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="291" t="s">
+      <c r="A105" s="264" t="s">
         <v>229</v>
       </c>
-      <c r="B105" s="291" t="s">
+      <c r="B105" s="264" t="s">
         <v>230</v>
       </c>
-      <c r="C105" s="292" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" s="293" t="s">
+      <c r="C105" s="265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="266" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="294" t="s">
+      <c r="A106" s="267" t="s">
         <v>231</v>
       </c>
-      <c r="B106" s="294" t="s">
+      <c r="B106" s="267" t="s">
         <v>232</v>
       </c>
-      <c r="C106" s="295" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" s="40" t="s">
+      <c r="C106" s="268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="296" t="s">
+      <c r="A107" s="269" t="s">
         <v>233</v>
       </c>
-      <c r="B107" s="296" t="s">
+      <c r="B107" s="269" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="297" t="s">
-        <v>28</v>
-      </c>
-      <c r="D107" s="40" t="s">
+      <c r="C107" s="270" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="298" t="s">
+      <c r="A108" s="271" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="298" t="s">
+      <c r="B108" s="271" t="s">
         <v>236</v>
       </c>
-      <c r="C108" s="299" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="40" t="s">
+      <c r="C108" s="272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="300" t="s">
+      <c r="A109" s="273" t="s">
         <v>237</v>
       </c>
-      <c r="B109" s="300" t="s">
+      <c r="B109" s="273" t="s">
         <v>238</v>
       </c>
-      <c r="C109" s="301" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" s="302" t="s">
+      <c r="C109" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="275" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="303" t="s">
+      <c r="A110" s="276" t="s">
         <v>239</v>
       </c>
-      <c r="B110" s="303" t="s">
+      <c r="B110" s="276" t="s">
         <v>240</v>
       </c>
-      <c r="C110" s="304" t="s">
-        <v>28</v>
-      </c>
-      <c r="D110" s="40" t="s">
+      <c r="C110" s="277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="305" t="s">
+      <c r="A111" s="278" t="s">
         <v>241</v>
       </c>
-      <c r="B111" s="305" t="s">
+      <c r="B111" s="278" t="s">
         <v>242</v>
       </c>
-      <c r="C111" s="306" t="s">
-        <v>28</v>
-      </c>
-      <c r="D111" s="307" t="s">
+      <c r="C111" s="279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="280" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="308" t="s">
+      <c r="A112" s="281" t="s">
         <v>243</v>
       </c>
-      <c r="B112" s="308" t="s">
+      <c r="B112" s="281" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="309" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" s="310" t="s">
+      <c r="C112" s="282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="283" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="311" t="s">
+      <c r="A113" s="284" t="s">
         <v>245</v>
       </c>
-      <c r="B113" s="311" t="s">
+      <c r="B113" s="284" t="s">
         <v>246</v>
       </c>
-      <c r="C113" s="312" t="s">
-        <v>28</v>
-      </c>
-      <c r="D113" s="313" t="s">
+      <c r="C113" s="285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="286" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="314" t="s">
+      <c r="A114" s="287" t="s">
         <v>247</v>
       </c>
-      <c r="B114" s="314" t="s">
+      <c r="B114" s="287" t="s">
         <v>248</v>
       </c>
-      <c r="C114" s="315" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" s="316" t="s">
+      <c r="C114" s="288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="289" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="317" t="s">
+      <c r="A115" s="290" t="s">
         <v>249</v>
       </c>
-      <c r="B115" s="317" t="s">
+      <c r="B115" s="290" t="s">
         <v>250</v>
       </c>
-      <c r="C115" s="318" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="319" t="s">
+      <c r="C115" s="291" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="292" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="320" t="s">
+      <c r="A116" s="293" t="s">
         <v>251</v>
       </c>
-      <c r="B116" s="320" t="s">
+      <c r="B116" s="293" t="s">
         <v>252</v>
       </c>
-      <c r="C116" s="321" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="322" t="s">
+      <c r="C116" s="294" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="295" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="323" t="s">
+      <c r="A117" s="296" t="s">
         <v>253</v>
       </c>
-      <c r="B117" s="323" t="s">
+      <c r="B117" s="296" t="s">
         <v>254</v>
       </c>
-      <c r="C117" s="324" t="s">
-        <v>28</v>
-      </c>
-      <c r="D117" s="325" t="s">
+      <c r="C117" s="297" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="298" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="326" t="s">
+      <c r="A118" s="299" t="s">
         <v>255</v>
       </c>
-      <c r="B118" s="326" t="s">
+      <c r="B118" s="299" t="s">
         <v>256</v>
       </c>
-      <c r="C118" s="327" t="s">
-        <v>28</v>
-      </c>
-      <c r="D118" s="40" t="s">
+      <c r="C118" s="300" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="328" t="s">
+      <c r="A119" s="301" t="s">
         <v>257</v>
       </c>
-      <c r="B119" s="328" t="s">
+      <c r="B119" s="301" t="s">
         <v>258</v>
       </c>
-      <c r="C119" s="329" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" s="40" t="s">
+      <c r="C119" s="302" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="330" t="s">
+      <c r="A120" s="303" t="s">
         <v>259</v>
       </c>
-      <c r="B120" s="330" t="s">
+      <c r="B120" s="303" t="s">
         <v>260</v>
       </c>
-      <c r="C120" s="331" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" s="332" t="s">
+      <c r="C120" s="304" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="305" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="333" t="s">
+      <c r="A121" s="306" t="s">
         <v>261</v>
       </c>
-      <c r="B121" s="333" t="s">
+      <c r="B121" s="306" t="s">
         <v>262</v>
       </c>
-      <c r="C121" s="334" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" s="40" t="s">
+      <c r="C121" s="307" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="335" t="s">
+      <c r="A122" s="308" t="s">
         <v>263</v>
       </c>
-      <c r="B122" s="335" t="s">
+      <c r="B122" s="308" t="s">
         <v>264</v>
       </c>
-      <c r="C122" s="336" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" s="337" t="s">
+      <c r="C122" s="309" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="310" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="338" t="s">
+      <c r="A123" s="311" t="s">
         <v>265</v>
       </c>
-      <c r="B123" s="338" t="s">
+      <c r="B123" s="311" t="s">
         <v>266</v>
       </c>
-      <c r="C123" s="339" t="s">
-        <v>28</v>
-      </c>
-      <c r="D123" s="257" t="s">
+      <c r="C123" s="312" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="230" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="340" t="s">
+      <c r="A124" s="313" t="s">
         <v>267</v>
       </c>
-      <c r="B124" s="340" t="s">
+      <c r="B124" s="313" t="s">
         <v>268</v>
       </c>
-      <c r="C124" s="341" t="s">
-        <v>28</v>
-      </c>
-      <c r="D124" s="342" t="s">
+      <c r="C124" s="314" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="315" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="343" t="s">
+      <c r="A125" s="316" t="s">
         <v>269</v>
       </c>
-      <c r="B125" s="343" t="s">
+      <c r="B125" s="316" t="s">
         <v>270</v>
       </c>
-      <c r="C125" s="344" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" s="345" t="s">
+      <c r="C125" s="317" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="318" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="346" t="s">
+      <c r="A126" s="319" t="s">
         <v>271</v>
       </c>
-      <c r="B126" s="346" t="s">
+      <c r="B126" s="319" t="s">
         <v>272</v>
       </c>
-      <c r="C126" s="347" t="s">
-        <v>28</v>
-      </c>
-      <c r="D126" s="348" t="s">
+      <c r="C126" s="320" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="321" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="349" t="s">
+      <c r="A127" s="322" t="s">
         <v>273</v>
       </c>
-      <c r="B127" s="349" t="s">
+      <c r="B127" s="322" t="s">
         <v>274</v>
       </c>
-      <c r="C127" s="350" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" s="351" t="s">
+      <c r="C127" s="323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="324" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="352" t="s">
+      <c r="A128" s="325" t="s">
         <v>275</v>
       </c>
-      <c r="B128" s="352" t="s">
+      <c r="B128" s="325" t="s">
         <v>276</v>
       </c>
-      <c r="C128" s="353" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128" s="354" t="s">
+      <c r="C128" s="326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="327" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="355" t="s">
+      <c r="A129" s="328" t="s">
         <v>277</v>
       </c>
-      <c r="B129" s="355" t="s">
+      <c r="B129" s="328" t="s">
         <v>278</v>
       </c>
-      <c r="C129" s="356" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" s="357" t="s">
+      <c r="C129" s="329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" s="330" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="358" t="s">
+      <c r="A130" s="331" t="s">
         <v>279</v>
       </c>
-      <c r="B130" s="358" t="s">
+      <c r="B130" s="331" t="s">
         <v>280</v>
       </c>
-      <c r="C130" s="359" t="s">
-        <v>28</v>
-      </c>
-      <c r="D130" s="40" t="s">
+      <c r="C130" s="332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="360" t="s">
+      <c r="A131" s="333" t="s">
         <v>281</v>
       </c>
-      <c r="B131" s="360" t="s">
+      <c r="B131" s="333" t="s">
         <v>282</v>
       </c>
-      <c r="C131" s="361" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" s="362" t="s">
+      <c r="C131" s="334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" s="335" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="363" t="s">
+      <c r="A132" s="336" t="s">
         <v>283</v>
       </c>
-      <c r="B132" s="363" t="s">
+      <c r="B132" s="336" t="s">
         <v>284</v>
       </c>
-      <c r="C132" s="364" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" s="251" t="s">
+      <c r="C132" s="337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" s="224" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="365" t="s">
+      <c r="A133" s="338" t="s">
         <v>285</v>
       </c>
-      <c r="B133" s="365" t="s">
+      <c r="B133" s="338" t="s">
         <v>286</v>
       </c>
-      <c r="C133" s="366" t="s">
-        <v>28</v>
-      </c>
-      <c r="D133" s="367" t="s">
+      <c r="C133" s="339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="340" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="368" t="s">
+      <c r="A134" s="341" t="s">
         <v>287</v>
       </c>
-      <c r="B134" s="368" t="s">
+      <c r="B134" s="341" t="s">
         <v>288</v>
       </c>
-      <c r="C134" s="369" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" s="370" t="s">
+      <c r="C134" s="342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="343" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="368" t="s">
+      <c r="A135" s="341" t="s">
         <v>289</v>
       </c>
-      <c r="B135" s="368" t="s">
+      <c r="B135" s="341" t="s">
         <v>288</v>
       </c>
-      <c r="C135" s="369" t="s">
-        <v>28</v>
-      </c>
-      <c r="D135" s="370" t="s">
+      <c r="C135" s="342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="343" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="371" t="s">
+      <c r="A136" s="344" t="s">
         <v>290</v>
       </c>
-      <c r="B136" s="371" t="s">
+      <c r="B136" s="344" t="s">
         <v>291</v>
       </c>
-      <c r="C136" s="372" t="s">
-        <v>28</v>
-      </c>
-      <c r="D136" s="40" t="s">
+      <c r="C136" s="345" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="373" t="s">
+      <c r="A137" s="346" t="s">
         <v>292</v>
       </c>
-      <c r="B137" s="373" t="s">
+      <c r="B137" s="346" t="s">
         <v>293</v>
       </c>
-      <c r="C137" s="374" t="s">
-        <v>28</v>
-      </c>
-      <c r="D137" s="375" t="s">
+      <c r="C137" s="347" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="348" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="376" t="s">
+      <c r="A138" s="349" t="s">
         <v>294</v>
       </c>
-      <c r="B138" s="376" t="s">
+      <c r="B138" s="349" t="s">
         <v>295</v>
       </c>
-      <c r="C138" s="377" t="s">
-        <v>28</v>
-      </c>
-      <c r="D138" s="378" t="s">
+      <c r="C138" s="350" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="351" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="379" t="s">
+      <c r="A139" s="352" t="s">
         <v>296</v>
       </c>
-      <c r="B139" s="379" t="s">
+      <c r="B139" s="352" t="s">
         <v>297</v>
       </c>
-      <c r="C139" s="380" t="s">
-        <v>28</v>
-      </c>
-      <c r="D139" s="216" t="s">
+      <c r="C139" s="353" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="189" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="381" t="s">
+      <c r="A140" s="354" t="s">
         <v>298</v>
       </c>
-      <c r="B140" s="381" t="s">
+      <c r="B140" s="354" t="s">
         <v>299</v>
       </c>
-      <c r="C140" s="382" t="s">
-        <v>28</v>
-      </c>
-      <c r="D140" s="40" t="s">
+      <c r="C140" s="355" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="383" t="s">
+      <c r="A141" s="356" t="s">
         <v>300</v>
       </c>
-      <c r="B141" s="383" t="s">
+      <c r="B141" s="356" t="s">
         <v>301</v>
       </c>
-      <c r="C141" s="384" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" s="385" t="s">
+      <c r="C141" s="357" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="358" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="386" t="s">
+      <c r="A142" s="359" t="s">
         <v>302</v>
       </c>
-      <c r="B142" s="386" t="s">
+      <c r="B142" s="359" t="s">
         <v>303</v>
       </c>
-      <c r="C142" s="387" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" s="388" t="s">
+      <c r="C142" s="360" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" s="361" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="389" t="s">
+      <c r="A143" s="362" t="s">
         <v>304</v>
       </c>
-      <c r="B143" s="389" t="s">
+      <c r="B143" s="362" t="s">
         <v>305</v>
       </c>
-      <c r="C143" s="390" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" s="391" t="s">
+      <c r="C143" s="363" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" s="364" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="392" t="s">
+      <c r="A144" s="365" t="s">
         <v>306</v>
       </c>
-      <c r="B144" s="392" t="s">
+      <c r="B144" s="365" t="s">
         <v>307</v>
       </c>
-      <c r="C144" s="393" t="s">
-        <v>28</v>
-      </c>
-      <c r="D144" s="40" t="s">
+      <c r="C144" s="366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="394" t="s">
+      <c r="A145" s="367" t="s">
         <v>308</v>
       </c>
-      <c r="B145" s="394" t="s">
+      <c r="B145" s="367" t="s">
         <v>309</v>
       </c>
-      <c r="C145" s="395" t="s">
-        <v>28</v>
-      </c>
-      <c r="D145" s="40" t="s">
+      <c r="C145" s="368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="396" t="s">
+      <c r="A146" s="369" t="s">
         <v>310</v>
       </c>
-      <c r="B146" s="396" t="s">
+      <c r="B146" s="369" t="s">
         <v>311</v>
       </c>
-      <c r="C146" s="397" t="s">
-        <v>28</v>
-      </c>
-      <c r="D146" s="398" t="s">
+      <c r="C146" s="370" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="371" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="399" t="s">
+      <c r="A147" s="372" t="s">
         <v>312</v>
       </c>
-      <c r="B147" s="399" t="s">
+      <c r="B147" s="372" t="s">
         <v>313</v>
       </c>
-      <c r="C147" s="400" t="s">
-        <v>28</v>
-      </c>
-      <c r="D147" s="401" t="s">
+      <c r="C147" s="373" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="374" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8933,124 +9217,124 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="29"/>
-      <c r="B1" s="402"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="375"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="404"/>
-      <c r="B2" s="405"/>
-      <c r="C2" s="406"/>
-      <c r="D2" s="407"/>
-      <c r="E2" s="408"/>
-      <c r="F2" s="409"/>
+      <c r="A2" s="377"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="380"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="382"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="405"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="408"/>
-      <c r="F3" s="32"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="410"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="411"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="383"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="384"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="412"/>
-      <c r="B5" s="413"/>
-      <c r="C5" s="414"/>
-      <c r="D5" s="415"/>
-      <c r="E5" s="416"/>
-      <c r="F5" s="417"/>
+      <c r="A5" s="385"/>
+      <c r="B5" s="386"/>
+      <c r="C5" s="387"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="389"/>
+      <c r="F5" s="390"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="418"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="419"/>
-      <c r="F6" s="34"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="391"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="420"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="421"/>
-      <c r="F7" s="32"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="393"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="394"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="422"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="423"/>
-      <c r="D8" s="424"/>
-      <c r="E8" s="421"/>
-      <c r="F8" s="425"/>
+      <c r="A8" s="395"/>
+      <c r="B8" s="393"/>
+      <c r="C8" s="396"/>
+      <c r="D8" s="397"/>
+      <c r="E8" s="394"/>
+      <c r="F8" s="398"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="420"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="421"/>
-      <c r="F9" s="32"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="393"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="394"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="426"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="427"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="399"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="400"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="428"/>
-      <c r="B11" s="429"/>
-      <c r="C11" s="430"/>
-      <c r="D11" s="431"/>
-      <c r="E11" s="432"/>
-      <c r="F11" s="433"/>
+      <c r="A11" s="401"/>
+      <c r="B11" s="402"/>
+      <c r="C11" s="403"/>
+      <c r="D11" s="404"/>
+      <c r="E11" s="405"/>
+      <c r="F11" s="406"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="434"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="435"/>
-      <c r="F12" s="34"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="407"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="408"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="436"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="437"/>
-      <c r="F13" s="32"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="409"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="410"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="438"/>
-      <c r="B14" s="436"/>
-      <c r="C14" s="439"/>
-      <c r="D14" s="440"/>
-      <c r="E14" s="437"/>
-      <c r="F14" s="441"/>
+      <c r="A14" s="411"/>
+      <c r="B14" s="409"/>
+      <c r="C14" s="412"/>
+      <c r="D14" s="413"/>
+      <c r="E14" s="410"/>
+      <c r="F14" s="414"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="442"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="443"/>
-      <c r="F15" s="34"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="415"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="416"/>
+      <c r="F15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9069,70 +9353,70 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="539" t="s">
+      <c r="A1" s="513" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="539"/>
-      <c r="C1" s="444" t="s">
+      <c r="B1" s="513"/>
+      <c r="C1" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="444" t="s">
+      <c r="D1" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="540" t="s">
+      <c r="A2" s="514" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541" t="s">
+      <c r="B2" s="514"/>
+      <c r="C2" s="515" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="444" t="s">
+      <c r="D2" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="540"/>
-      <c r="B3" s="540"/>
-      <c r="C3" s="541"/>
-      <c r="D3" s="444" t="s">
+      <c r="A3" s="514"/>
+      <c r="B3" s="514"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="540"/>
-      <c r="B4" s="540"/>
-      <c r="C4" s="444" t="s">
+      <c r="A4" s="514"/>
+      <c r="B4" s="514"/>
+      <c r="C4" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="444" t="s">
+      <c r="D4" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="444" t="s">
+      <c r="A5" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="539" t="s">
+      <c r="B5" s="513" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="539"/>
-      <c r="D5" s="444" t="s">
+      <c r="C5" s="513"/>
+      <c r="D5" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="444" t="s">
+      <c r="A6" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="444" t="s">
+      <c r="B6" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="C6" s="444" t="s">
+      <c r="C6" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="444" t="s">
+      <c r="D6" s="417" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9162,135 +9446,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="469" t="s">
+      <c r="B1" s="442" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="470" t="s">
+      <c r="C1" s="443" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="470" t="s">
+      <c r="D1" s="443" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="471" t="s">
+      <c r="E1" s="444" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="472" t="s">
+      <c r="A2" s="445" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="473" t="s">
+      <c r="B2" s="446" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="474" t="s">
+      <c r="C2" s="447" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="475" t="s">
+      <c r="D2" s="448" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="476" t="s">
+      <c r="E2" s="449" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="450" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="456" t="s">
+      <c r="B3" s="429" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="453" t="s">
+      <c r="C3" s="426" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="453" t="s">
+      <c r="D3" s="426" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="457" t="s">
+      <c r="E3" s="430" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="477" t="s">
+      <c r="A4" s="450" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="458" t="s">
+      <c r="B4" s="431" t="s">
         <v>322</v>
       </c>
-      <c r="C4" s="454" t="s">
+      <c r="C4" s="427" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="453" t="s">
+      <c r="D4" s="426" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="459" t="s">
+      <c r="E4" s="432" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="477" t="s">
+      <c r="A5" s="450" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="433" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="453" t="s">
+      <c r="C5" s="426" t="s">
         <v>322</v>
       </c>
-      <c r="D5" s="453" t="s">
+      <c r="D5" s="426" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="461" t="s">
+      <c r="E5" s="434" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="477" t="s">
+      <c r="A6" s="450" t="s">
         <v>334</v>
       </c>
-      <c r="B6" s="462" t="s">
+      <c r="B6" s="435" t="s">
         <v>322</v>
       </c>
-      <c r="C6" s="449" t="s">
+      <c r="C6" s="422" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="453" t="s">
+      <c r="D6" s="426" t="s">
         <v>335</v>
       </c>
-      <c r="E6" s="463" t="s">
+      <c r="E6" s="436" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="477" t="s">
+      <c r="A7" s="450" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="464" t="s">
+      <c r="B7" s="437" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="455" t="s">
+      <c r="C7" s="428" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="453" t="s">
+      <c r="D7" s="426" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="465" t="s">
+      <c r="E7" s="438" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="478" t="s">
+      <c r="A8" s="451" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="466" t="s">
+      <c r="B8" s="439" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="467" t="s">
+      <c r="C8" s="440" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="467" t="s">
+      <c r="D8" s="440" t="s">
         <v>322</v>
       </c>
-      <c r="E8" s="468" t="s">
+      <c r="E8" s="441" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9308,7 +9592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740A3BD5-63EB-6543-A84C-9EAD8F792455}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -9322,13 +9606,13 @@
       <c r="A1" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="538" t="s">
+      <c r="B1" s="510" t="s">
         <v>346</v>
       </c>
-      <c r="C1" s="542" t="s">
+      <c r="C1" s="511" t="s">
         <v>347</v>
       </c>
-      <c r="D1" s="538" t="s">
+      <c r="D1" s="510" t="s">
         <v>348</v>
       </c>
     </row>
@@ -9336,7 +9620,7 @@
       <c r="A2" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="538" t="s">
+      <c r="B2" s="510" t="s">
         <v>342</v>
       </c>
     </row>
@@ -9344,7 +9628,7 @@
       <c r="A3" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="538" t="s">
+      <c r="B3" s="510" t="s">
         <v>344</v>
       </c>
     </row>

--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axelhowind/Projects/meja/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B73D1-3691-3745-B7F7-51DB459BDC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD11BCC-0E6F-B241-833C-C013B6DB3A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67200" windowHeight="35800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Test" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="356">
   <si>
     <t>Left</t>
   </si>
@@ -1507,6 +1507,9 @@
   </si>
   <si>
     <t>Distributed (wrap)</t>
+  </si>
+  <si>
+    <t>merged</t>
   </si>
 </sst>
 </file>
@@ -4524,7 +4527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="596">
+  <cellXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5774,15 +5777,6 @@
     <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="386" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="388" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="390" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6012,6 +6006,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="386" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="388" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6388,7 +6394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6402,410 +6408,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="569"/>
-      <c r="B1" s="569" t="s">
+      <c r="A1" s="566"/>
+      <c r="B1" s="566" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="570" t="s">
+      <c r="C1" s="567" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="571" t="s">
+      <c r="D1" s="568" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="572" t="s">
+      <c r="E1" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="573" t="s">
+      <c r="F1" s="570" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="573" t="s">
+      <c r="G1" s="570" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="574" t="s">
+      <c r="A2" s="571" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="575" t="s">
+      <c r="B2" s="572" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="576" t="s">
+      <c r="C2" s="573" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="577" t="s">
+      <c r="D2" s="574" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="578" t="s">
+      <c r="E2" s="575" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="579" t="s">
+      <c r="F2" s="576" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="579" t="s">
+      <c r="G2" s="576" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="580" t="s">
+      <c r="A3" s="577" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="581" t="s">
+      <c r="B3" s="578" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="582" t="s">
+      <c r="C3" s="579" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="583" t="s">
+      <c r="D3" s="580" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="584" t="s">
+      <c r="E3" s="581" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="585" t="s">
+      <c r="F3" s="582" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="585" t="s">
+      <c r="G3" s="582" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="569" t="s">
+      <c r="A4" s="566" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="586" t="s">
+      <c r="B4" s="583" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="587" t="s">
+      <c r="C4" s="584" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="588" t="s">
+      <c r="D4" s="585" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="589" t="s">
+      <c r="E4" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="590" t="s">
+      <c r="F4" s="587" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="590" t="s">
+      <c r="G4" s="587" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="569" t="s">
+      <c r="A5" s="566" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="583" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="587" t="s">
+      <c r="C5" s="584" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="588" t="s">
+      <c r="D5" s="585" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="589" t="s">
+      <c r="E5" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="590" t="s">
+      <c r="F5" s="587" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="590" t="s">
+      <c r="G5" s="587" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="591" t="s">
+      <c r="A6" s="588" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="589" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="593" t="s">
+      <c r="C6" s="590" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="594" t="s">
+      <c r="D6" s="591" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="595" t="s">
+      <c r="E6" s="592" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="590" t="s">
+      <c r="F6" s="587" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="590" t="s">
+      <c r="G6" s="587" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="543"/>
-      <c r="B8" s="543" t="s">
+      <c r="A8" s="540"/>
+      <c r="B8" s="540" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="544" t="s">
+      <c r="C8" s="541" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="545" t="s">
+      <c r="D8" s="542" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="546" t="s">
+      <c r="E8" s="543" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="547" t="s">
+      <c r="F8" s="544" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="547" t="s">
+      <c r="G8" s="544" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="548" t="s">
+      <c r="A9" s="545" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="549" t="s">
+      <c r="B9" s="546" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="550" t="s">
+      <c r="C9" s="547" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="551" t="s">
+      <c r="D9" s="548" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="552" t="s">
+      <c r="E9" s="549" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="553" t="s">
+      <c r="F9" s="550" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="553" t="s">
+      <c r="G9" s="550" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="554" t="s">
+      <c r="A10" s="551" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="555" t="s">
+      <c r="B10" s="552" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="512" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="556" t="s">
+      <c r="D10" s="553" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="557" t="s">
+      <c r="E10" s="554" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="558" t="s">
+      <c r="F10" s="555" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="558" t="s">
+      <c r="G10" s="555" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="543" t="s">
+      <c r="A11" s="540" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="559" t="s">
+      <c r="B11" s="556" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="560" t="s">
+      <c r="C11" s="557" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="561" t="s">
+      <c r="D11" s="558" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="562" t="s">
+      <c r="E11" s="559" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="563" t="s">
+      <c r="F11" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="563" t="s">
+      <c r="G11" s="560" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="543" t="s">
+      <c r="A12" s="540" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="559" t="s">
+      <c r="B12" s="556" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="560" t="s">
+      <c r="C12" s="557" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="561" t="s">
+      <c r="D12" s="558" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="562" t="s">
+      <c r="E12" s="559" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="563" t="s">
+      <c r="F12" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="563" t="s">
+      <c r="G12" s="560" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="564" t="s">
+      <c r="A13" s="561" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="565" t="s">
+      <c r="B13" s="562" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="566" t="s">
+      <c r="C13" s="563" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="567" t="s">
+      <c r="D13" s="564" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="568" t="s">
+      <c r="E13" s="565" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="563" t="s">
+      <c r="F13" s="560" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="563" t="s">
+      <c r="G13" s="560" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="516"/>
-      <c r="B15" s="516" t="s">
+      <c r="A15" s="513"/>
+      <c r="B15" s="513" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="517" t="s">
+      <c r="C15" s="514" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="518" t="s">
+      <c r="D15" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="519" t="s">
+      <c r="E15" s="516" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="520" t="s">
+      <c r="F15" s="517" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="520" t="s">
+      <c r="G15" s="517" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="521" t="s">
+      <c r="A16" s="518" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="522" t="s">
+      <c r="B16" s="519" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="523" t="s">
+      <c r="C16" s="520" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="524" t="s">
+      <c r="D16" s="521" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="525" t="s">
+      <c r="E16" s="522" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="526" t="s">
+      <c r="F16" s="523" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="526" t="s">
+      <c r="G16" s="523" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="527" t="s">
+      <c r="A17" s="524" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="528" t="s">
+      <c r="B17" s="525" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="529" t="s">
+      <c r="C17" s="526" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="530" t="s">
+      <c r="D17" s="527" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="531" t="s">
+      <c r="E17" s="528" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="532" t="s">
+      <c r="F17" s="529" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="532" t="s">
+      <c r="G17" s="529" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="516" t="s">
+      <c r="A18" s="513" t="s">
         <v>352</v>
       </c>
-      <c r="B18" s="533" t="s">
+      <c r="B18" s="530" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="534" t="s">
+      <c r="C18" s="531" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="535" t="s">
+      <c r="D18" s="532" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="536" t="s">
+      <c r="E18" s="533" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="537" t="s">
+      <c r="F18" s="534" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="537" t="s">
+      <c r="G18" s="534" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="516" t="s">
+      <c r="A19" s="513" t="s">
         <v>353</v>
       </c>
-      <c r="B19" s="533" t="s">
+      <c r="B19" s="530" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="534" t="s">
+      <c r="C19" s="531" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="535" t="s">
+      <c r="D19" s="532" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="536" t="s">
+      <c r="E19" s="533" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="537" t="s">
+      <c r="F19" s="534" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="537" t="s">
+      <c r="G19" s="534" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="538" t="s">
+      <c r="A20" s="535" t="s">
         <v>354</v>
       </c>
-      <c r="B20" s="539" t="s">
+      <c r="B20" s="536" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="540" t="s">
+      <c r="C20" s="537" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="541" t="s">
+      <c r="D20" s="538" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="542" t="s">
+      <c r="E20" s="539" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="537" t="s">
+      <c r="F20" s="534" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="537" t="s">
+      <c r="G20" s="534" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6823,11 +6829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9344,19 +9350,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="593" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="513"/>
+      <c r="B1" s="593"/>
       <c r="C1" s="417" t="s">
         <v>341</v>
       </c>
@@ -9365,11 +9371,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="514" t="s">
+      <c r="A2" s="594" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="514"/>
-      <c r="C2" s="515" t="s">
+      <c r="B2" s="594"/>
+      <c r="C2" s="595" t="s">
         <v>316</v>
       </c>
       <c r="D2" s="417" t="s">
@@ -9377,16 +9383,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="514"/>
-      <c r="B3" s="514"/>
-      <c r="C3" s="515"/>
+      <c r="A3" s="594"/>
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
       <c r="D3" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="514"/>
-      <c r="B4" s="514"/>
+      <c r="A4" s="594"/>
+      <c r="B4" s="594"/>
       <c r="C4" s="417" t="s">
         <v>341</v>
       </c>
@@ -9398,10 +9404,10 @@
       <c r="A5" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="513" t="s">
+      <c r="B5" s="593" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="513"/>
+      <c r="C5" s="593"/>
       <c r="D5" s="417" t="s">
         <v>341</v>
       </c>
@@ -9420,12 +9426,21 @@
         <v>341</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="596" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="596"/>
+      <c r="C9" s="596"/>
+      <c r="D9" s="596"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axelhowind/Projects/meja/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD11BCC-0E6F-B241-833C-C013B6DB3A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505274AE-A68D-2942-987D-F92521986736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Test" sheetId="1" r:id="rId1"/>
@@ -4114,7 +4114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -4522,12 +4522,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="597">
+  <cellXfs count="599">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -6016,7 +6053,13 @@
     <xf numFmtId="0" fontId="0" fillId="389" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9353,7 +9396,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9426,13 +9469,14 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="596" t="s">
         <v>355</v>
       </c>
-      <c r="B9" s="596"/>
-      <c r="C9" s="596"/>
-      <c r="D9" s="596"/>
+      <c r="B9" s="597"/>
+      <c r="C9" s="597"/>
+      <c r="D9" s="598"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/testdata/test.xlsx
+++ b/testdata/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axelhowind/Projects/meja/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505274AE-A68D-2942-987D-F92521986736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AF83D2-044C-C04A-A527-BE4482D3A55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="9780" windowWidth="39820" windowHeight="24100" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alignment Test" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Merged Cells" sheetId="7" r:id="rId7"/>
     <sheet name="Inline styles" sheetId="8" r:id="rId8"/>
     <sheet name="Links" sheetId="9" r:id="rId9"/>
+    <sheet name="rotated text" sheetId="11" r:id="rId10"/>
+    <sheet name="table format" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="1218">
   <si>
     <t>Left</t>
   </si>
@@ -1511,12 +1513,2604 @@
   <si>
     <t>merged</t>
   </si>
+  <si>
+    <t>Country / dependency</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>660 (260)</t>
+  </si>
+  <si>
+    <t>300 (100)</t>
+  </si>
+  <si>
+    <t>0 (0)</t>
+  </si>
+  <si>
+    <t>630 (240)</t>
+  </si>
+  <si>
+    <t>250 (97)</t>
+  </si>
+  <si>
+    <t>950 (370)</t>
+  </si>
+  <si>
+    <t>500 (200)</t>
+  </si>
+  <si>
+    <t>400 (200)</t>
+  </si>
+  <si>
+    <t>140 (54)</t>
+  </si>
+  <si>
+    <t>130 (50)</t>
+  </si>
+  <si>
+    <t>600 (200)</t>
+  </si>
+  <si>
+    <t>620 (240)</t>
+  </si>
+  <si>
+    <t>524 (202)</t>
+  </si>
+  <si>
+    <t>720 (280)</t>
+  </si>
+  <si>
+    <t>120 (46)</t>
+  </si>
+  <si>
+    <t>210 (81)</t>
+  </si>
+  <si>
+    <t>10 (4)</t>
+  </si>
+  <si>
+    <t>40 (20)</t>
+  </si>
+  <si>
+    <t>350 (140)</t>
+  </si>
+  <si>
+    <t>880 (340)</t>
+  </si>
+  <si>
+    <t>910 (350)</t>
+  </si>
+  <si>
+    <t>330 (130)</t>
+  </si>
+  <si>
+    <t>190 (73)</t>
+  </si>
+  <si>
+    <t>490 (190)</t>
+  </si>
+  <si>
+    <t>20 (8)</t>
+  </si>
+  <si>
+    <t>160 (62)</t>
+  </si>
+  <si>
+    <t>440 (170)</t>
+  </si>
+  <si>
+    <t>320 (120)</t>
+  </si>
+  <si>
+    <t>122 (47)</t>
+  </si>
+  <si>
+    <t>360 (140)</t>
+  </si>
+  <si>
+    <t>220 (85)</t>
+  </si>
+  <si>
+    <t>232 (89)</t>
+  </si>
+  <si>
+    <t>80 (30)</t>
+  </si>
+  <si>
+    <t>340 (130)</t>
+  </si>
+  <si>
+    <t>16 (6)</t>
+  </si>
+  <si>
+    <t>28 (11)</t>
+  </si>
+  <si>
+    <t>60 (20)</t>
+  </si>
+  <si>
+    <t>964 (372)</t>
+  </si>
+  <si>
+    <t>948 (366)</t>
+  </si>
+  <si>
+    <t>811 (313)</t>
+  </si>
+  <si>
+    <t>778 (300)</t>
+  </si>
+  <si>
+    <t>750 (290)</t>
+  </si>
+  <si>
+    <t>747 (288)</t>
+  </si>
+  <si>
+    <t>30 (10)</t>
+  </si>
+  <si>
+    <t>736 (284)</t>
+  </si>
+  <si>
+    <t>726 (280)</t>
+  </si>
+  <si>
+    <t>702 (271)</t>
+  </si>
+  <si>
+    <t>700 (300)</t>
+  </si>
+  <si>
+    <t>616 (238)</t>
+  </si>
+  <si>
+    <t>610 (240)</t>
+  </si>
+  <si>
+    <t>572 (221)</t>
+  </si>
+  <si>
+    <t>570 (220)</t>
+  </si>
+  <si>
+    <t>541 (209)</t>
+  </si>
+  <si>
+    <t>540 (210)</t>
+  </si>
+  <si>
+    <t>468 (181)</t>
+  </si>
+  <si>
+    <t>459 (177)</t>
+  </si>
+  <si>
+    <t>457 (176)</t>
+  </si>
+  <si>
+    <t>444 (171)</t>
+  </si>
+  <si>
+    <t>442 (171)</t>
+  </si>
+  <si>
+    <t>431 (166)</t>
+  </si>
+  <si>
+    <t>412 (159)</t>
+  </si>
+  <si>
+    <t>394 (152)</t>
+  </si>
+  <si>
+    <t>389 (150)</t>
+  </si>
+  <si>
+    <t>377 (146)</t>
+  </si>
+  <si>
+    <t>347 (134)</t>
+  </si>
+  <si>
+    <t>345 (133)</t>
+  </si>
+  <si>
+    <t>315 (122)</t>
+  </si>
+  <si>
+    <t>288 (111)</t>
+  </si>
+  <si>
+    <t>264 (102)</t>
+  </si>
+  <si>
+    <t>240 (93)</t>
+  </si>
+  <si>
+    <t>24 (9)</t>
+  </si>
+  <si>
+    <t>261 (101)</t>
+  </si>
+  <si>
+    <t>260 (100)</t>
+  </si>
+  <si>
+    <t>254 (98)</t>
+  </si>
+  <si>
+    <t>242 (93)</t>
+  </si>
+  <si>
+    <t>230 (89)</t>
+  </si>
+  <si>
+    <t>236 (91)</t>
+  </si>
+  <si>
+    <t>199 (77)</t>
+  </si>
+  <si>
+    <t>181 (70)</t>
+  </si>
+  <si>
+    <t>180 (69)</t>
+  </si>
+  <si>
+    <t>163 (63)</t>
+  </si>
+  <si>
+    <t>151 (58)</t>
+  </si>
+  <si>
+    <t>142 (55)</t>
+  </si>
+  <si>
+    <t>135 (52)</t>
+  </si>
+  <si>
+    <t>116 (45)</t>
+  </si>
+  <si>
+    <t>103 (40)</t>
+  </si>
+  <si>
+    <t>100 (40)</t>
+  </si>
+  <si>
+    <t>91 (35)</t>
+  </si>
+  <si>
+    <t>78 (30)</t>
+  </si>
+  <si>
+    <t>61 (24)</t>
+  </si>
+  <si>
+    <t>54 (21)</t>
+  </si>
+  <si>
+    <t>53 (20)</t>
+  </si>
+  <si>
+    <t>49 (19)</t>
+  </si>
+  <si>
+    <t>47 (18)</t>
+  </si>
+  <si>
+    <t>36 (14)</t>
+  </si>
+  <si>
+    <t>34 (13)</t>
+  </si>
+  <si>
+    <t>33 (13)</t>
+  </si>
+  <si>
+    <t>26 (10)</t>
+  </si>
+  <si>
+    <t>22 (8)</t>
+  </si>
+  <si>
+    <t>21 (8)</t>
+  </si>
+  <si>
+    <t>14 (5)</t>
+  </si>
+  <si>
+    <t>13 (5)</t>
+  </si>
+  <si>
+    <t>12 (5)</t>
+  </si>
+  <si>
+    <t>Total area in km2 (mi2)</t>
+  </si>
+  <si>
+    <t>Land in km2 (mi2)</t>
+  </si>
+  <si>
+    <t>Water in km2 (mi2)</t>
+  </si>
+  <si>
+    <t>% water</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark Kingdom of Denmark</t>
+  </si>
+  <si>
+    <t>Greenland (Denmark)</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>France (metropolitan)</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Norway (mainland)</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Somaliland</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nepal</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Svalbard (Norway)</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Switzerland</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>New Caledonia (France)</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Falkland Islands (UK)</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Puerto Rico (US)</t>
+  </si>
+  <si>
+    <t>Abkhazia</t>
+  </si>
+  <si>
+    <t>French Southern Territories (France)</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>French Polynesia (France)</t>
+  </si>
+  <si>
+    <t>Transnistria</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands (UK)</t>
+  </si>
+  <si>
+    <t>South Ossetia</t>
+  </si>
+  <si>
+    <t>Northern Cyprus</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Bir Tawil (terra nullius)</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Åland (Finland)</t>
+  </si>
+  <si>
+    <t>Faroe Islands (Denmark)</t>
+  </si>
+  <si>
+    <t>Hong Kong (China)</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands (UK)</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Isle of Man (UK)</t>
+  </si>
+  <si>
+    <t>Guam (US)</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands (US)</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Curaçao (Netherlands)</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands (Australia)</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Jan Mayen (Norway)</t>
+  </si>
+  <si>
+    <t>U.S. Virgin Islands (US)</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Bonaire (Netherlands)</t>
+  </si>
+  <si>
+    <t>Cayman Islands (UK)</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Akrotiri and Dhekelia (UK)</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon (France)</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>American Samoa (US)</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Aruba (Netherlands)</t>
+  </si>
+  <si>
+    <t>Easter Island (Chile)</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>British Virgin Islands (UK)</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna (France)</t>
+  </si>
+  <si>
+    <t>Christmas Island (Australia)</t>
+  </si>
+  <si>
+    <t>Jersey (UK)</t>
+  </si>
+  <si>
+    <t>Montserrat (UK)</t>
+  </si>
+  <si>
+    <t>Anguilla (UK)</t>
+  </si>
+  <si>
+    <t>Guernsey (UK)</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory (UK)</t>
+  </si>
+  <si>
+    <t>Bermuda (UK)</t>
+  </si>
+  <si>
+    <t>Saint Martin (France)</t>
+  </si>
+  <si>
+    <t>Bouvet Island (Norway)</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands (UK)</t>
+  </si>
+  <si>
+    <t>Norfolk Island (Australia)</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Netherlands)</t>
+  </si>
+  <si>
+    <t>Macau (China)</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy (France)</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Sint Eustatius (Netherlands)</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands (Australia)</t>
+  </si>
+  <si>
+    <t>Saba (Netherlands)</t>
+  </si>
+  <si>
+    <t>Tokelau (New Zealand)</t>
+  </si>
+  <si>
+    <t>Gibraltar (UK)</t>
+  </si>
+  <si>
+    <t>Clipperton Island (France)</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands (Australia)</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands (Australia)</t>
+  </si>
+  <si>
+    <t>Spratly Islands (disputed)</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
+  </si>
+  <si>
+    <t>510072000 (196940000)</t>
+  </si>
+  <si>
+    <t>148940000 (57506000)</t>
+  </si>
+  <si>
+    <t>361132000 (139434000)</t>
+  </si>
+  <si>
+    <t>17098246 (6601667)</t>
+  </si>
+  <si>
+    <t>16376870 (6323142)</t>
+  </si>
+  <si>
+    <t>721380 (278530)</t>
+  </si>
+  <si>
+    <t>14200000 (5480000)</t>
+  </si>
+  <si>
+    <t>9984670 (3855100)</t>
+  </si>
+  <si>
+    <t>9093507 (3511021)</t>
+  </si>
+  <si>
+    <t>891163 (344080)</t>
+  </si>
+  <si>
+    <t>9596960 (3705410)</t>
+  </si>
+  <si>
+    <t>9326410 (3600950)</t>
+  </si>
+  <si>
+    <t>270550 (104460)</t>
+  </si>
+  <si>
+    <t>9525067 (3677647)</t>
+  </si>
+  <si>
+    <t>9147593 (3531904)</t>
+  </si>
+  <si>
+    <t>377424 (145724)</t>
+  </si>
+  <si>
+    <t>8510346 (3285862)</t>
+  </si>
+  <si>
+    <t>8460415 (3266583)</t>
+  </si>
+  <si>
+    <t>55352 (21372)</t>
+  </si>
+  <si>
+    <t>7741220 (2988900)</t>
+  </si>
+  <si>
+    <t>7682300 (2966200)</t>
+  </si>
+  <si>
+    <t>58920 (22750)</t>
+  </si>
+  <si>
+    <t>3287263 (1269219)</t>
+  </si>
+  <si>
+    <t>2973190 (1147960)</t>
+  </si>
+  <si>
+    <t>314070 (121260)</t>
+  </si>
+  <si>
+    <t>2780400 (1073500)</t>
+  </si>
+  <si>
+    <t>2736690 (1056640)</t>
+  </si>
+  <si>
+    <t>43710 (16880)</t>
+  </si>
+  <si>
+    <t>2724910 (1052090)</t>
+  </si>
+  <si>
+    <t>2699700 (1042400)</t>
+  </si>
+  <si>
+    <t>25202 (9731)</t>
+  </si>
+  <si>
+    <t>2381741 (919595)</t>
+  </si>
+  <si>
+    <t>2344858 (905354)</t>
+  </si>
+  <si>
+    <t>2267048 (875312)</t>
+  </si>
+  <si>
+    <t>77810 (30040)</t>
+  </si>
+  <si>
+    <t>2210573 (853507)</t>
+  </si>
+  <si>
+    <t>2209913 (853252)</t>
+  </si>
+  <si>
+    <t>2166086 (836330)</t>
+  </si>
+  <si>
+    <t>2149690 (830000)</t>
+  </si>
+  <si>
+    <t>1964375 (758449)</t>
+  </si>
+  <si>
+    <t>1943950 (750563)</t>
+  </si>
+  <si>
+    <t>20425 (7886)</t>
+  </si>
+  <si>
+    <t>1904569 (735358)</t>
+  </si>
+  <si>
+    <t>1811569 (699450)</t>
+  </si>
+  <si>
+    <t>93000 (36000)</t>
+  </si>
+  <si>
+    <t>1861484 (718723)</t>
+  </si>
+  <si>
+    <t>1731671 (668602)</t>
+  </si>
+  <si>
+    <t>129813 (50121)</t>
+  </si>
+  <si>
+    <t>1759540 (679362)</t>
+  </si>
+  <si>
+    <t>1648195 (636371)</t>
+  </si>
+  <si>
+    <t>1531595 (591352)</t>
+  </si>
+  <si>
+    <t>116600 (45020)</t>
+  </si>
+  <si>
+    <t>1564116 (603908)</t>
+  </si>
+  <si>
+    <t>1557507 (601357)</t>
+  </si>
+  <si>
+    <t>6609 (2552)</t>
+  </si>
+  <si>
+    <t>1285216 (496224)</t>
+  </si>
+  <si>
+    <t>1279996 (494209)</t>
+  </si>
+  <si>
+    <t>5220 (2020)</t>
+  </si>
+  <si>
+    <t>1284000 (495800)</t>
+  </si>
+  <si>
+    <t>1259200 (486180)</t>
+  </si>
+  <si>
+    <t>24800 (9580)</t>
+  </si>
+  <si>
+    <t>1267000 (489200)</t>
+  </si>
+  <si>
+    <t>1266700 (489080)</t>
+  </si>
+  <si>
+    <t>1246700 (481350)</t>
+  </si>
+  <si>
+    <t>1240192 (478841)</t>
+  </si>
+  <si>
+    <t>1220190 (471118)</t>
+  </si>
+  <si>
+    <t>20000 (8000)</t>
+  </si>
+  <si>
+    <t>1219090 (470693)</t>
+  </si>
+  <si>
+    <t>1214470 (468909)</t>
+  </si>
+  <si>
+    <t>4620 (1780)</t>
+  </si>
+  <si>
+    <t>1138910 (439735)</t>
+  </si>
+  <si>
+    <t>1038700 (401040)</t>
+  </si>
+  <si>
+    <t>100210 (38691)</t>
+  </si>
+  <si>
+    <t>1104300 (426370)</t>
+  </si>
+  <si>
+    <t>1096570 (423388)</t>
+  </si>
+  <si>
+    <t>7730 (2990)</t>
+  </si>
+  <si>
+    <t>1098581 (424164)</t>
+  </si>
+  <si>
+    <t>1083300 (418260)</t>
+  </si>
+  <si>
+    <t>15280 (5900)</t>
+  </si>
+  <si>
+    <t>1030700 (397960)</t>
+  </si>
+  <si>
+    <t>1001450 (386662)</t>
+  </si>
+  <si>
+    <t>995450 (384350)</t>
+  </si>
+  <si>
+    <t>6000 (2000)</t>
+  </si>
+  <si>
+    <t>947303 (365756)</t>
+  </si>
+  <si>
+    <t>885800 (342000)</t>
+  </si>
+  <si>
+    <t>61500 (23700)</t>
+  </si>
+  <si>
+    <t>923768 (356669)</t>
+  </si>
+  <si>
+    <t>910770 (351650)</t>
+  </si>
+  <si>
+    <t>13000 (5000)</t>
+  </si>
+  <si>
+    <t>912050 (352140)</t>
+  </si>
+  <si>
+    <t>882050 (340560)</t>
+  </si>
+  <si>
+    <t>30000 (10000)</t>
+  </si>
+  <si>
+    <t>882363 (340682)</t>
+  </si>
+  <si>
+    <t>857143 (330945)</t>
+  </si>
+  <si>
+    <t>25220 (9737)</t>
+  </si>
+  <si>
+    <t>824292 (318261)</t>
+  </si>
+  <si>
+    <t>823290 (317870)</t>
+  </si>
+  <si>
+    <t>1002 (387)</t>
+  </si>
+  <si>
+    <t>799380 (308640)</t>
+  </si>
+  <si>
+    <t>786380 (303620)</t>
+  </si>
+  <si>
+    <t>783562 (302535)</t>
+  </si>
+  <si>
+    <t>769632 (297156)</t>
+  </si>
+  <si>
+    <t>13930 (5378)</t>
+  </si>
+  <si>
+    <t>756102 (291932)</t>
+  </si>
+  <si>
+    <t>743812 (287187)</t>
+  </si>
+  <si>
+    <t>12290 (4745)</t>
+  </si>
+  <si>
+    <t>752612 (290585)</t>
+  </si>
+  <si>
+    <t>743390 (287020)</t>
+  </si>
+  <si>
+    <t>9220 (3560)</t>
+  </si>
+  <si>
+    <t>676578 (261228)</t>
+  </si>
+  <si>
+    <t>653508 (252321)</t>
+  </si>
+  <si>
+    <t>23070 (8907)</t>
+  </si>
+  <si>
+    <t>652864 (252072)</t>
+  </si>
+  <si>
+    <t>652230 (251830)</t>
+  </si>
+  <si>
+    <t>644329 (248777)</t>
+  </si>
+  <si>
+    <t>643801 (248573)</t>
+  </si>
+  <si>
+    <t>640427 (247270)</t>
+  </si>
+  <si>
+    <t>3374 (1303)</t>
+  </si>
+  <si>
+    <t>637657 (246201)</t>
+  </si>
+  <si>
+    <t>627340 (242220)</t>
+  </si>
+  <si>
+    <t>10320 (3985)</t>
+  </si>
+  <si>
+    <t>622984 (240535)</t>
+  </si>
+  <si>
+    <t>603550 (233030)</t>
+  </si>
+  <si>
+    <t>579330 (223680)</t>
+  </si>
+  <si>
+    <t>24220 (9351)</t>
+  </si>
+  <si>
+    <t>587041 (226658)</t>
+  </si>
+  <si>
+    <t>581540 (224530)</t>
+  </si>
+  <si>
+    <t>5501 (2124)</t>
+  </si>
+  <si>
+    <t>582000 (225000)</t>
+  </si>
+  <si>
+    <t>566730 (218820)</t>
+  </si>
+  <si>
+    <t>15000 (5800)</t>
+  </si>
+  <si>
+    <t>580367 (224081)</t>
+  </si>
+  <si>
+    <t>569140 (219750)</t>
+  </si>
+  <si>
+    <t>11227 (4335)</t>
+  </si>
+  <si>
+    <t>551500 (212900)</t>
+  </si>
+  <si>
+    <t>549970 (212350)</t>
+  </si>
+  <si>
+    <t>1530 (591)</t>
+  </si>
+  <si>
+    <t>513120 (198120)</t>
+  </si>
+  <si>
+    <t>510890 (197260)</t>
+  </si>
+  <si>
+    <t>2230 (861)</t>
+  </si>
+  <si>
+    <t>505370 (195120)</t>
+  </si>
+  <si>
+    <t>498980 (192660)</t>
+  </si>
+  <si>
+    <t>6390 (2470)</t>
+  </si>
+  <si>
+    <t>488100 (188500)</t>
+  </si>
+  <si>
+    <t>469930 (181440)</t>
+  </si>
+  <si>
+    <t>18170 (7015)</t>
+  </si>
+  <si>
+    <t>475650 (183650)</t>
+  </si>
+  <si>
+    <t>472710 (182510)</t>
+  </si>
+  <si>
+    <t>2730 (1050)</t>
+  </si>
+  <si>
+    <t>462840 (178700)</t>
+  </si>
+  <si>
+    <t>452860 (174850)</t>
+  </si>
+  <si>
+    <t>9980 (3850)</t>
+  </si>
+  <si>
+    <t>455503 (175871)</t>
+  </si>
+  <si>
+    <t>450295 (173860)</t>
+  </si>
+  <si>
+    <t>407284 (157253)</t>
+  </si>
+  <si>
+    <t>40142 (15499)</t>
+  </si>
+  <si>
+    <t>447400 (172700)</t>
+  </si>
+  <si>
+    <t>425400 (164200)</t>
+  </si>
+  <si>
+    <t>22000 (8500)</t>
+  </si>
+  <si>
+    <t>446550 (172410)</t>
+  </si>
+  <si>
+    <t>446300 (172300)</t>
+  </si>
+  <si>
+    <t>438317 (169235)</t>
+  </si>
+  <si>
+    <t>437367 (168868)</t>
+  </si>
+  <si>
+    <t>406752 (157048)</t>
+  </si>
+  <si>
+    <t>397300 (153400)</t>
+  </si>
+  <si>
+    <t>9452 (3649)</t>
+  </si>
+  <si>
+    <t>390757 (150872)</t>
+  </si>
+  <si>
+    <t>386850 (149360)</t>
+  </si>
+  <si>
+    <t>3910 (1510)</t>
+  </si>
+  <si>
+    <t>386224 (149122)</t>
+  </si>
+  <si>
+    <t>366704 (141585)</t>
+  </si>
+  <si>
+    <t>19520 (7537)</t>
+  </si>
+  <si>
+    <t>377915 (145914)</t>
+  </si>
+  <si>
+    <t>364485 (140728)</t>
+  </si>
+  <si>
+    <t>13430 (5185)</t>
+  </si>
+  <si>
+    <t>357581 (138063)</t>
+  </si>
+  <si>
+    <t>349390 (134900)</t>
+  </si>
+  <si>
+    <t>7860 (3040)</t>
+  </si>
+  <si>
+    <t>342000 (132000)</t>
+  </si>
+  <si>
+    <t>341500 (131900)</t>
+  </si>
+  <si>
+    <t>338145 (130558)</t>
+  </si>
+  <si>
+    <t>303815 (117304)</t>
+  </si>
+  <si>
+    <t>34330 (13260)</t>
+  </si>
+  <si>
+    <t>331340 (127930)</t>
+  </si>
+  <si>
+    <t>313429 (121016)</t>
+  </si>
+  <si>
+    <t>17801 (6873)</t>
+  </si>
+  <si>
+    <t>330621 (127653)</t>
+  </si>
+  <si>
+    <t>329432 (127194)</t>
+  </si>
+  <si>
+    <t>1190 (459)</t>
+  </si>
+  <si>
+    <t>323802 (125021)</t>
+  </si>
+  <si>
+    <t>304282 (117484)</t>
+  </si>
+  <si>
+    <t>322462 (124503)</t>
+  </si>
+  <si>
+    <t>318000 (123000)</t>
+  </si>
+  <si>
+    <t>4460 (1720)</t>
+  </si>
+  <si>
+    <t>312685 (120728)</t>
+  </si>
+  <si>
+    <t>304255 (117473)</t>
+  </si>
+  <si>
+    <t>8430 (3260)</t>
+  </si>
+  <si>
+    <t>309500 (119500)</t>
+  </si>
+  <si>
+    <t>302068 (116629)</t>
+  </si>
+  <si>
+    <t>295717 (114177)</t>
+  </si>
+  <si>
+    <t>6350 (2450)</t>
+  </si>
+  <si>
+    <t>300000 (100000)</t>
+  </si>
+  <si>
+    <t>298170 (115120)</t>
+  </si>
+  <si>
+    <t>1830 (707)</t>
+  </si>
+  <si>
+    <t>283561 (109483)</t>
+  </si>
+  <si>
+    <t>276841 (106889)</t>
+  </si>
+  <si>
+    <t>6720 (2600)</t>
+  </si>
+  <si>
+    <t>274200 (105900)</t>
+  </si>
+  <si>
+    <t>273800 (105700)</t>
+  </si>
+  <si>
+    <t>268838 (103799)</t>
+  </si>
+  <si>
+    <t>264537 (102138)</t>
+  </si>
+  <si>
+    <t>4301 (1661)</t>
+  </si>
+  <si>
+    <t>267668 (103347)</t>
+  </si>
+  <si>
+    <t>257670 (99487)</t>
+  </si>
+  <si>
+    <t>10000 (4000)</t>
+  </si>
+  <si>
+    <t>266000 (103000)</t>
+  </si>
+  <si>
+    <t>245857 (94926)</t>
+  </si>
+  <si>
+    <t>245717 (94872)</t>
+  </si>
+  <si>
+    <t>244376 (94354)</t>
+  </si>
+  <si>
+    <t>242741 (93723)</t>
+  </si>
+  <si>
+    <t>1635 (631)</t>
+  </si>
+  <si>
+    <t>241550 (93263)</t>
+  </si>
+  <si>
+    <t>200520 (77421)</t>
+  </si>
+  <si>
+    <t>41030 (15840)</t>
+  </si>
+  <si>
+    <t>238537 (92100)</t>
+  </si>
+  <si>
+    <t>227533 (87851)</t>
+  </si>
+  <si>
+    <t>11000 (4200)</t>
+  </si>
+  <si>
+    <t>238398 (92046)</t>
+  </si>
+  <si>
+    <t>230080 (88834)</t>
+  </si>
+  <si>
+    <t>8320 (3210)</t>
+  </si>
+  <si>
+    <t>236800 (91430)</t>
+  </si>
+  <si>
+    <t>230800 (89110)</t>
+  </si>
+  <si>
+    <t>214969 (83000)</t>
+  </si>
+  <si>
+    <t>196850 (76004)</t>
+  </si>
+  <si>
+    <t>18120 (6996)</t>
+  </si>
+  <si>
+    <t>207600 (80160)</t>
+  </si>
+  <si>
+    <t>202900 (78340)</t>
+  </si>
+  <si>
+    <t>4700 (1800)</t>
+  </si>
+  <si>
+    <t>199949 (77201)</t>
+  </si>
+  <si>
+    <t>191800 (74050)</t>
+  </si>
+  <si>
+    <t>8150 (3150)</t>
+  </si>
+  <si>
+    <t>196712 (75951)</t>
+  </si>
+  <si>
+    <t>192530 (74336)</t>
+  </si>
+  <si>
+    <t>4180 (1610)</t>
+  </si>
+  <si>
+    <t>185180 (71498)</t>
+  </si>
+  <si>
+    <t>183630 (70900)</t>
+  </si>
+  <si>
+    <t>1550 (598)</t>
+  </si>
+  <si>
+    <t>181035 (69898)</t>
+  </si>
+  <si>
+    <t>176520 (68155)</t>
+  </si>
+  <si>
+    <t>4520 (1750)</t>
+  </si>
+  <si>
+    <t>177000 (68300)</t>
+  </si>
+  <si>
+    <t>176215 (68037)</t>
+  </si>
+  <si>
+    <t>175015 (67574)</t>
+  </si>
+  <si>
+    <t>1200 (460)</t>
+  </si>
+  <si>
+    <t>163820 (63251)</t>
+  </si>
+  <si>
+    <t>156000 (60200)</t>
+  </si>
+  <si>
+    <t>7820 (3020)</t>
+  </si>
+  <si>
+    <t>163610 (63170)</t>
+  </si>
+  <si>
+    <t>155360 (59985)</t>
+  </si>
+  <si>
+    <t>8250 (3190)</t>
+  </si>
+  <si>
+    <t>148460 (57321)</t>
+  </si>
+  <si>
+    <t>130170 (50259)</t>
+  </si>
+  <si>
+    <t>18290 (7062)</t>
+  </si>
+  <si>
+    <t>147181 (56827)</t>
+  </si>
+  <si>
+    <t>143350 (55348)</t>
+  </si>
+  <si>
+    <t>3830 (1480)</t>
+  </si>
+  <si>
+    <t>144100 (55640)</t>
+  </si>
+  <si>
+    <t>141510 (54637)</t>
+  </si>
+  <si>
+    <t>2590 (1000)</t>
+  </si>
+  <si>
+    <t>131957 (50949)</t>
+  </si>
+  <si>
+    <t>128900 (49770)</t>
+  </si>
+  <si>
+    <t>1310 (506)</t>
+  </si>
+  <si>
+    <t>130373 (50337)</t>
+  </si>
+  <si>
+    <t>120340 (46464)</t>
+  </si>
+  <si>
+    <t>10030 (3873)</t>
+  </si>
+  <si>
+    <t>120538 (46540)</t>
+  </si>
+  <si>
+    <t>120410 (46491)</t>
+  </si>
+  <si>
+    <t>118484 (45747)</t>
+  </si>
+  <si>
+    <t>94080 (36320)</t>
+  </si>
+  <si>
+    <t>24404 (9422)</t>
+  </si>
+  <si>
+    <t>117600 (45410)</t>
+  </si>
+  <si>
+    <t>101000 (39000)</t>
+  </si>
+  <si>
+    <t>16600 (6410)</t>
+  </si>
+  <si>
+    <t>114763 (44310)</t>
+  </si>
+  <si>
+    <t>112760 (43537)</t>
+  </si>
+  <si>
+    <t>2000 (800)</t>
+  </si>
+  <si>
+    <t>112492 (43433)</t>
+  </si>
+  <si>
+    <t>111890 (43201)</t>
+  </si>
+  <si>
+    <t>111369 (43000)</t>
+  </si>
+  <si>
+    <t>96320 (37190)</t>
+  </si>
+  <si>
+    <t>15049 (5810)</t>
+  </si>
+  <si>
+    <t>110879 (42811)</t>
+  </si>
+  <si>
+    <t>108489 (41888)</t>
+  </si>
+  <si>
+    <t>2390 (923)</t>
+  </si>
+  <si>
+    <t>109884 (42426)</t>
+  </si>
+  <si>
+    <t>103800 (40080)</t>
+  </si>
+  <si>
+    <t>6080 (2350)</t>
+  </si>
+  <si>
+    <t>108889 (42042)</t>
+  </si>
+  <si>
+    <t>107160 (41375)</t>
+  </si>
+  <si>
+    <t>1730 (668)</t>
+  </si>
+  <si>
+    <t>103000 (39800)</t>
+  </si>
+  <si>
+    <t>100830 (38931)</t>
+  </si>
+  <si>
+    <t>2170 (838)</t>
+  </si>
+  <si>
+    <t>100432 (38777)</t>
+  </si>
+  <si>
+    <t>97600 (37700)</t>
+  </si>
+  <si>
+    <t>2800 (1100)</t>
+  </si>
+  <si>
+    <t>93025 (35917)</t>
+  </si>
+  <si>
+    <t>91260 (35240)</t>
+  </si>
+  <si>
+    <t>1770 (683)</t>
+  </si>
+  <si>
+    <t>92225 (35608)</t>
+  </si>
+  <si>
+    <t>91606 (35369)</t>
+  </si>
+  <si>
+    <t>89318 (34486)</t>
+  </si>
+  <si>
+    <t>88794 (34284)</t>
+  </si>
+  <si>
+    <t>88499 (34170)</t>
+  </si>
+  <si>
+    <t>86600 (33400)</t>
+  </si>
+  <si>
+    <t>82650 (31910)</t>
+  </si>
+  <si>
+    <t>3950 (1530)</t>
+  </si>
+  <si>
+    <t>83878 (32385)</t>
+  </si>
+  <si>
+    <t>82520 (31860)</t>
+  </si>
+  <si>
+    <t>1359 (525)</t>
+  </si>
+  <si>
+    <t>83600 (32300)</t>
+  </si>
+  <si>
+    <t>82880 (32000)</t>
+  </si>
+  <si>
+    <t>78871 (30452)</t>
+  </si>
+  <si>
+    <t>77187 (29802)</t>
+  </si>
+  <si>
+    <t>1684 (650)</t>
+  </si>
+  <si>
+    <t>75320 (29080)</t>
+  </si>
+  <si>
+    <t>74180 (28640)</t>
+  </si>
+  <si>
+    <t>1143 (441)</t>
+  </si>
+  <si>
+    <t>72300 (27900)</t>
+  </si>
+  <si>
+    <t>72180 (27870)</t>
+  </si>
+  <si>
+    <t>70273 (27133)</t>
+  </si>
+  <si>
+    <t>68883 (26596)</t>
+  </si>
+  <si>
+    <t>1390 (537)</t>
+  </si>
+  <si>
+    <t>69700 (26900)</t>
+  </si>
+  <si>
+    <t>69490 (26830)</t>
+  </si>
+  <si>
+    <t>65610 (25330)</t>
+  </si>
+  <si>
+    <t>61860 (23880)</t>
+  </si>
+  <si>
+    <t>3750 (1450)</t>
+  </si>
+  <si>
+    <t>65286 (25207)</t>
+  </si>
+  <si>
+    <t>62610 (24170)</t>
+  </si>
+  <si>
+    <t>2680 (1040)</t>
+  </si>
+  <si>
+    <t>64594 (24940)</t>
+  </si>
+  <si>
+    <t>62230 (24030)</t>
+  </si>
+  <si>
+    <t>2370 (915)</t>
+  </si>
+  <si>
+    <t>62045 (23956)</t>
+  </si>
+  <si>
+    <t>56785 (21925)</t>
+  </si>
+  <si>
+    <t>54390 (21000)</t>
+  </si>
+  <si>
+    <t>2400 (930)</t>
+  </si>
+  <si>
+    <t>56594 (21851)</t>
+  </si>
+  <si>
+    <t>55974 (21612)</t>
+  </si>
+  <si>
+    <t>51209 (19772)</t>
+  </si>
+  <si>
+    <t>51200 (19800)</t>
+  </si>
+  <si>
+    <t>51100 (19700)</t>
+  </si>
+  <si>
+    <t>51060 (19710)</t>
+  </si>
+  <si>
+    <t>49035 (18933)</t>
+  </si>
+  <si>
+    <t>48080 (18560)</t>
+  </si>
+  <si>
+    <t>48670 (18790)</t>
+  </si>
+  <si>
+    <t>48320 (18660)</t>
+  </si>
+  <si>
+    <t>45339 (17505)</t>
+  </si>
+  <si>
+    <t>42388 (16366)</t>
+  </si>
+  <si>
+    <t>2840 (1100)</t>
+  </si>
+  <si>
+    <t>42947 (16582)</t>
+  </si>
+  <si>
+    <t>42434 (16384)</t>
+  </si>
+  <si>
+    <t>41865 (16164)</t>
+  </si>
+  <si>
+    <t>33893 (13086)</t>
+  </si>
+  <si>
+    <t>7650 (2950)</t>
+  </si>
+  <si>
+    <t>41291 (15943)</t>
+  </si>
+  <si>
+    <t>39510 (15260)</t>
+  </si>
+  <si>
+    <t>1781 (688)</t>
+  </si>
+  <si>
+    <t>38394 (14824)</t>
+  </si>
+  <si>
+    <t>38140 (14730)</t>
+  </si>
+  <si>
+    <t>36125 (13948)</t>
+  </si>
+  <si>
+    <t>28120 (10860)</t>
+  </si>
+  <si>
+    <t>8010 (3090)</t>
+  </si>
+  <si>
+    <t>35980 (13890)</t>
+  </si>
+  <si>
+    <t>32260 (12460)</t>
+  </si>
+  <si>
+    <t>3720 (1440)</t>
+  </si>
+  <si>
+    <t>33847 (13068)</t>
+  </si>
+  <si>
+    <t>32970 (12730)</t>
+  </si>
+  <si>
+    <t>30528 (11787)</t>
+  </si>
+  <si>
+    <t>30280 (11690)</t>
+  </si>
+  <si>
+    <t>30355 (11720)</t>
+  </si>
+  <si>
+    <t>29743 (11484)</t>
+  </si>
+  <si>
+    <t>28470 (10990)</t>
+  </si>
+  <si>
+    <t>1270 (490)</t>
+  </si>
+  <si>
+    <t>28896 (11157)</t>
+  </si>
+  <si>
+    <t>27990 (10810)</t>
+  </si>
+  <si>
+    <t>28748 (11100)</t>
+  </si>
+  <si>
+    <t>27400 (10600)</t>
+  </si>
+  <si>
+    <t>28051 (10831)</t>
+  </si>
+  <si>
+    <t>27834 (10747)</t>
+  </si>
+  <si>
+    <t>25680 (9915)</t>
+  </si>
+  <si>
+    <t>2150 (830)</t>
+  </si>
+  <si>
+    <t>27750 (10710)</t>
+  </si>
+  <si>
+    <t>27560 (10640)</t>
+  </si>
+  <si>
+    <t>26338 (10169)</t>
+  </si>
+  <si>
+    <t>24670 (9525)</t>
+  </si>
+  <si>
+    <t>1670 (645)</t>
+  </si>
+  <si>
+    <t>25713 (9928)</t>
+  </si>
+  <si>
+    <t>23200 (8960)</t>
+  </si>
+  <si>
+    <t>23180 (8950)</t>
+  </si>
+  <si>
+    <t>22965 (8867)</t>
+  </si>
+  <si>
+    <t>22810 (8807)</t>
+  </si>
+  <si>
+    <t>21937 (8470)</t>
+  </si>
+  <si>
+    <t>21497 (8300)</t>
+  </si>
+  <si>
+    <t>21041 (8124)</t>
+  </si>
+  <si>
+    <t>20720 (8000)</t>
+  </si>
+  <si>
+    <t>20273 (7827)</t>
+  </si>
+  <si>
+    <t>20151 (7780)</t>
+  </si>
+  <si>
+    <t>18575 (7172)</t>
+  </si>
+  <si>
+    <t>18275 (7056)</t>
+  </si>
+  <si>
+    <t>18272 (7055)</t>
+  </si>
+  <si>
+    <t>17818 (6880)</t>
+  </si>
+  <si>
+    <t>17363 (6704)</t>
+  </si>
+  <si>
+    <t>17200 (6640)</t>
+  </si>
+  <si>
+    <t>14874 (5743)</t>
+  </si>
+  <si>
+    <t>13880 (5359)</t>
+  </si>
+  <si>
+    <t>10010 (3865)</t>
+  </si>
+  <si>
+    <t>3870 (1490)</t>
+  </si>
+  <si>
+    <t>13812 (5333)</t>
+  </si>
+  <si>
+    <t>13452 (5194)</t>
+  </si>
+  <si>
+    <t>12189 (4706)</t>
+  </si>
+  <si>
+    <t>12173 (4700)</t>
+  </si>
+  <si>
+    <t>11586 (4473)</t>
+  </si>
+  <si>
+    <t>11295 (4361)</t>
+  </si>
+  <si>
+    <t>10120 (3907)</t>
+  </si>
+  <si>
+    <t>1180 (456)</t>
+  </si>
+  <si>
+    <t>10991 (4244)</t>
+  </si>
+  <si>
+    <t>10830 (4181)</t>
+  </si>
+  <si>
+    <t>10887 (4203)</t>
+  </si>
+  <si>
+    <t>10452 (4036)</t>
+  </si>
+  <si>
+    <t>10230 (3950)</t>
+  </si>
+  <si>
+    <t>9251 (3572)</t>
+  </si>
+  <si>
+    <t>9241 (3568)</t>
+  </si>
+  <si>
+    <t>9100 (3500)</t>
+  </si>
+  <si>
+    <t>8868 (3424)</t>
+  </si>
+  <si>
+    <t>8665 (3346)</t>
+  </si>
+  <si>
+    <t>7747 (2991)</t>
+  </si>
+  <si>
+    <t>7668 (2961)</t>
+  </si>
+  <si>
+    <t>6020 (2320)</t>
+  </si>
+  <si>
+    <t>6025 (2326)</t>
+  </si>
+  <si>
+    <t>5765 (2226)</t>
+  </si>
+  <si>
+    <t>5270 (2040)</t>
+  </si>
+  <si>
+    <t>5127 (1980)</t>
+  </si>
+  <si>
+    <t>4167 (1609)</t>
+  </si>
+  <si>
+    <t>3827 (1478)</t>
+  </si>
+  <si>
+    <t>4163 (1607)</t>
+  </si>
+  <si>
+    <t>4033 (1557)</t>
+  </si>
+  <si>
+    <t>3903 (1507)</t>
+  </si>
+  <si>
+    <t>3900 (1500)</t>
+  </si>
+  <si>
+    <t>3355 (1295)</t>
+  </si>
+  <si>
+    <t>2842 (1097)</t>
+  </si>
+  <si>
+    <t>2780 (1070)</t>
+  </si>
+  <si>
+    <t>2586 (998)</t>
+  </si>
+  <si>
+    <t>2574 (994)</t>
+  </si>
+  <si>
+    <t>2060 (795)</t>
+  </si>
+  <si>
+    <t>2040 (788)</t>
+  </si>
+  <si>
+    <t>2030 (784)</t>
+  </si>
+  <si>
+    <t>1861 (719)</t>
+  </si>
+  <si>
+    <t>1581 (610)</t>
+  </si>
+  <si>
+    <t>1553 (600)</t>
+  </si>
+  <si>
+    <t>1393 (538)</t>
+  </si>
+  <si>
+    <t>1114 (430)</t>
+  </si>
+  <si>
+    <t>1050 (405)</t>
+  </si>
+  <si>
+    <t>Saint Helena Ascension and Tristan da Cunha (UK)</t>
+  </si>
+  <si>
+    <t>U,S, Minor Outlying Islands (US)</t>
+  </si>
+  <si>
+    <t>6,8 (2,6)</t>
+  </si>
+  <si>
+    <t>6,0 (2,3)</t>
+  </si>
+  <si>
+    <t>2,0 (0,77)</t>
+  </si>
+  <si>
+    <t>4,0 (1,5)</t>
+  </si>
+  <si>
+    <t>5,0 (1,9)</t>
+  </si>
+  <si>
+    <t>3,0 (1,2)</t>
+  </si>
+  <si>
+    <t>0,49 (0,19)</t>
+  </si>
+  <si>
+    <t>Rank
+(according to Wikipedia)</t>
+  </si>
+  <si>
+    <t>rotated text
+multiple lines
+lines have different lengths to check wrapping</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>MIDDLE</t>
+  </si>
+  <si>
+    <t>BOTTOM</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>45°</t>
+  </si>
+  <si>
+    <t>0°</t>
+  </si>
+  <si>
+    <t>20°</t>
+  </si>
+  <si>
+    <t>70°</t>
+  </si>
+  <si>
+    <t>90°</t>
+  </si>
+  <si>
+    <t>-20°</t>
+  </si>
+  <si>
+    <t>-45°</t>
+  </si>
+  <si>
+    <t>-70°</t>
+  </si>
+  <si>
+    <t>-90°</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1771,8 +4365,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="391">
+  <fills count="392">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4113,8 +6714,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -4559,12 +7166,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="599">
+  <cellXfs count="753">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -6044,6 +8664,16 @@
     <xf numFmtId="0" fontId="0" fillId="384" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="distributed" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="386" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6061,13 +8691,489 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="20" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="70" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="391" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="391" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="120" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="135" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="160" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="180" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -6146,6 +9252,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED223E2D-37FB-D645-89F8-F02EB1F5EC7B}" name="Tabelle2" displayName="Tabelle2" ref="A1:F265" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F265" xr:uid="{ED223E2D-37FB-D645-89F8-F02EB1F5EC7B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FA19458A-1CD5-AA4B-B74E-F4BDEB98B547}" name="Rank_x000a_(according to Wikipedia)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{ECF768C0-82ED-804D-91FE-EF57F230044A}" name="Country / dependency"/>
+    <tableColumn id="3" xr3:uid="{B8E48F75-E7E2-2945-9068-19A5255DC29E}" name="Total area in km2 (mi2)"/>
+    <tableColumn id="4" xr3:uid="{1ED21513-A4D6-A141-82B0-15EEDDE656F5}" name="Land in km2 (mi2)"/>
+    <tableColumn id="5" xr3:uid="{6466D98F-5BBE-EC4C-9D76-EC2BE705C8D1}" name="Water in km2 (mi2)"/>
+    <tableColumn id="6" xr3:uid="{3D7B9F54-5794-F444-B986-9F591F41F728}" name="% water" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6868,6 +9989,6203 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C93605D-D5D3-CF41-974E-61F9C1FB0F84}">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="5" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="687" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1" s="687"/>
+      <c r="C1" s="687"/>
+      <c r="D1" s="687"/>
+      <c r="E1" s="687"/>
+    </row>
+    <row r="2" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="607" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C2" s="607" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D2" s="607" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E2" s="607" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B3" s="619" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C3" s="608" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D3" s="609" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E3" s="610" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B4" s="620" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C4" s="603" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D4" s="604" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E4" s="611" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="617" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B5" s="621" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C5" s="605" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D5" s="606" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E5" s="612" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B6" s="622" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C6" s="613" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D6" s="614" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E6" s="615" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="687" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B8" s="687"/>
+      <c r="C8" s="687"/>
+      <c r="D8" s="687"/>
+      <c r="E8" s="687"/>
+    </row>
+    <row r="9" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="607" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C9" s="607" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D9" s="607" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E9" s="607" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B10" s="639" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C10" s="640" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D10" s="641" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E10" s="642" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B11" s="643" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C11" s="644" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D11" s="645" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E11" s="646" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="617" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B12" s="647" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C12" s="648" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D12" s="649" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E12" s="650" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B13" s="651" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C13" s="652" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D13" s="653" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E13" s="654" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="687" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B15" s="687"/>
+      <c r="C15" s="687"/>
+      <c r="D15" s="687"/>
+      <c r="E15" s="687"/>
+    </row>
+    <row r="16" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="607" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C16" s="607" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D16" s="607" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E16" s="607" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B17" s="623" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C17" s="624" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D17" s="625" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E17" s="626" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B18" s="627" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C18" s="628" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D18" s="629" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E18" s="630" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="617" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B19" s="631" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C19" s="632" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D19" s="633" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E19" s="634" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B20" s="635" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C20" s="636" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D20" s="637" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E20" s="638" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="687" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B22" s="687"/>
+      <c r="C22" s="687"/>
+      <c r="D22" s="687"/>
+      <c r="E22" s="687"/>
+    </row>
+    <row r="23" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="607" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C23" s="607" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D23" s="607" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E23" s="607" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B24" s="655" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C24" s="656" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D24" s="657" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E24" s="658" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B25" s="659" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C25" s="660" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D25" s="661" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E25" s="662" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="617" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B26" s="663" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C26" s="664" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D26" s="665" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E26" s="666" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B27" s="667" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C27" s="668" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D27" s="669" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E27" s="670" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="687" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B29" s="687"/>
+      <c r="C29" s="687"/>
+      <c r="D29" s="687"/>
+      <c r="E29" s="687"/>
+    </row>
+    <row r="30" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="607" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C30" s="607" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D30" s="607" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E30" s="607" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B31" s="671" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C31" s="672" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D31" s="673" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E31" s="674" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B32" s="675" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C32" s="676" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D32" s="677" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E32" s="678" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="617" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B33" s="679" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C33" s="680" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D33" s="681" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E33" s="682" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B34" s="683" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C34" s="684" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D34" s="685" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E34" s="686" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="687" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B36" s="687"/>
+      <c r="C36" s="687"/>
+      <c r="D36" s="687"/>
+      <c r="E36" s="687"/>
+    </row>
+    <row r="37" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="607" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C37" s="607" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D37" s="607" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E37" s="607" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B38" s="619" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C38" s="608" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D38" s="609" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E38" s="610" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B39" s="620" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C39" s="603" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D39" s="604" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E39" s="611" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="617" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B40" s="621" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C40" s="605" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D40" s="606" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E40" s="612" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B41" s="622" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C41" s="613" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D41" s="614" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E41" s="615" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="688" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B43" s="687"/>
+      <c r="C43" s="687"/>
+      <c r="D43" s="687"/>
+      <c r="E43" s="687"/>
+    </row>
+    <row r="44" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="607" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C44" s="607" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D44" s="607" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E44" s="607" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B45" s="689" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C45" s="690" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D45" s="691" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E45" s="692" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B46" s="693" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C46" s="694" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D46" s="695" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E46" s="696" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="617" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B47" s="697" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C47" s="698" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D47" s="699" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E47" s="700" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B48" s="701" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C48" s="702" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D48" s="703" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E48" s="704" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="688" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B50" s="687"/>
+      <c r="C50" s="687"/>
+      <c r="D50" s="687"/>
+      <c r="E50" s="687"/>
+    </row>
+    <row r="51" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="607" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C51" s="607" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D51" s="607" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E51" s="607" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B52" s="705" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C52" s="706" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D52" s="707" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E52" s="708" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B53" s="709" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C53" s="710" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D53" s="711" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E53" s="712" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="617" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B54" s="713" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C54" s="714" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D54" s="715" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E54" s="716" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B55" s="717" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C55" s="718" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D55" s="719" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E55" s="720" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="688" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B57" s="687"/>
+      <c r="C57" s="687"/>
+      <c r="D57" s="687"/>
+      <c r="E57" s="687"/>
+    </row>
+    <row r="58" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="607" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C58" s="607" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D58" s="607" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E58" s="607" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B59" s="721" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C59" s="722" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D59" s="723" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E59" s="724" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B60" s="725" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C60" s="726" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D60" s="727" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E60" s="728" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="617" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B61" s="729" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C61" s="730" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D61" s="731" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E61" s="732" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B62" s="733" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C62" s="734" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D62" s="735" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E62" s="736" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="688" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B64" s="687"/>
+      <c r="C64" s="687"/>
+      <c r="D64" s="687"/>
+      <c r="E64" s="687"/>
+    </row>
+    <row r="65" spans="1:5" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="607" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C65" s="607" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D65" s="607" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E65" s="607" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="616" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B66" s="737" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C66" s="738" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D66" s="739" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E66" s="740" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="617" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B67" s="741" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C67" s="742" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D67" s="743" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E67" s="744" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="617" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B68" s="745" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C68" s="746" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D68" s="747" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E68" s="748" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="618" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B69" s="749" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C69" s="750" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D69" s="751" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E69" s="752" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A36:E36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DAD161-CA1E-5142-AA02-8EB74B551CF8}">
+  <dimension ref="A1:F265"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="92" x14ac:dyDescent="0.15">
+      <c r="A1" s="596" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1" s="593" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="593" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="593" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" s="593" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" s="593" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F2" s="595">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="594">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F3" s="595">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4" t="s">
+        <v>733</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="594">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" t="s">
+        <v>734</v>
+      </c>
+      <c r="D5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F5" s="595">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="594">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D6" t="s">
+        <v>738</v>
+      </c>
+      <c r="E6" t="s">
+        <v>739</v>
+      </c>
+      <c r="F6" s="595">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="594">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D7" t="s">
+        <v>741</v>
+      </c>
+      <c r="E7" t="s">
+        <v>742</v>
+      </c>
+      <c r="F7" s="595">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="594">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" t="s">
+        <v>743</v>
+      </c>
+      <c r="D8" t="s">
+        <v>744</v>
+      </c>
+      <c r="E8" t="s">
+        <v>745</v>
+      </c>
+      <c r="F8" s="595">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="594">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D9" t="s">
+        <v>747</v>
+      </c>
+      <c r="E9" t="s">
+        <v>748</v>
+      </c>
+      <c r="F9" s="595">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="594">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C10" t="s">
+        <v>749</v>
+      </c>
+      <c r="D10" t="s">
+        <v>750</v>
+      </c>
+      <c r="E10" t="s">
+        <v>751</v>
+      </c>
+      <c r="F10" s="595">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="594">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C11" t="s">
+        <v>752</v>
+      </c>
+      <c r="D11" t="s">
+        <v>753</v>
+      </c>
+      <c r="E11" t="s">
+        <v>754</v>
+      </c>
+      <c r="F11" s="595">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="594">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" t="s">
+        <v>755</v>
+      </c>
+      <c r="D12" t="s">
+        <v>756</v>
+      </c>
+      <c r="E12" t="s">
+        <v>757</v>
+      </c>
+      <c r="F12" s="595">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="594">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" t="s">
+        <v>758</v>
+      </c>
+      <c r="D13" t="s">
+        <v>758</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="594">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" t="s">
+        <v>759</v>
+      </c>
+      <c r="D14" t="s">
+        <v>760</v>
+      </c>
+      <c r="E14" t="s">
+        <v>761</v>
+      </c>
+      <c r="F14" s="595">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C15" t="s">
+        <v>762</v>
+      </c>
+      <c r="D15" t="s">
+        <v>763</v>
+      </c>
+      <c r="E15" t="s">
+        <v>358</v>
+      </c>
+      <c r="F15" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C16" t="s">
+        <v>764</v>
+      </c>
+      <c r="D16" t="s">
+        <v>764</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="594">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D17" t="s">
+        <v>765</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="594">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" t="s">
+        <v>766</v>
+      </c>
+      <c r="D18" t="s">
+        <v>767</v>
+      </c>
+      <c r="E18" t="s">
+        <v>768</v>
+      </c>
+      <c r="F18" s="595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="594">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>482</v>
+      </c>
+      <c r="C19" t="s">
+        <v>769</v>
+      </c>
+      <c r="D19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" t="s">
+        <v>771</v>
+      </c>
+      <c r="F19" s="595">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="594">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" t="s">
+        <v>772</v>
+      </c>
+      <c r="D20" t="s">
+        <v>773</v>
+      </c>
+      <c r="E20" t="s">
+        <v>774</v>
+      </c>
+      <c r="F20" s="595">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="594">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C21" t="s">
+        <v>775</v>
+      </c>
+      <c r="D21" t="s">
+        <v>775</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="594">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" t="s">
+        <v>776</v>
+      </c>
+      <c r="D22" t="s">
+        <v>777</v>
+      </c>
+      <c r="E22" t="s">
+        <v>778</v>
+      </c>
+      <c r="F22" s="595">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="594">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>486</v>
+      </c>
+      <c r="C23" t="s">
+        <v>779</v>
+      </c>
+      <c r="D23" t="s">
+        <v>780</v>
+      </c>
+      <c r="E23" t="s">
+        <v>781</v>
+      </c>
+      <c r="F23" s="595">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="594">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>487</v>
+      </c>
+      <c r="C24" t="s">
+        <v>782</v>
+      </c>
+      <c r="D24" t="s">
+        <v>783</v>
+      </c>
+      <c r="E24" t="s">
+        <v>784</v>
+      </c>
+      <c r="F24" s="595">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="594">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" t="s">
+        <v>785</v>
+      </c>
+      <c r="D25" t="s">
+        <v>786</v>
+      </c>
+      <c r="E25" t="s">
+        <v>787</v>
+      </c>
+      <c r="F25" s="595">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="594">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>489</v>
+      </c>
+      <c r="C26" t="s">
+        <v>788</v>
+      </c>
+      <c r="D26" t="s">
+        <v>789</v>
+      </c>
+      <c r="E26" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="594">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D27" t="s">
+        <v>790</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="594">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>491</v>
+      </c>
+      <c r="C28" t="s">
+        <v>791</v>
+      </c>
+      <c r="D28" t="s">
+        <v>792</v>
+      </c>
+      <c r="E28" t="s">
+        <v>793</v>
+      </c>
+      <c r="F28" s="595">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="594">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>492</v>
+      </c>
+      <c r="C29" t="s">
+        <v>794</v>
+      </c>
+      <c r="D29" t="s">
+        <v>795</v>
+      </c>
+      <c r="E29" t="s">
+        <v>796</v>
+      </c>
+      <c r="F29" s="595">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="594">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C30" t="s">
+        <v>797</v>
+      </c>
+      <c r="D30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E30" t="s">
+        <v>799</v>
+      </c>
+      <c r="F30" s="595">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="594">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>494</v>
+      </c>
+      <c r="C31" t="s">
+        <v>800</v>
+      </c>
+      <c r="D31" t="s">
+        <v>801</v>
+      </c>
+      <c r="E31" t="s">
+        <v>802</v>
+      </c>
+      <c r="F31" s="595">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="594">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C32" t="s">
+        <v>803</v>
+      </c>
+      <c r="D32" t="s">
+        <v>804</v>
+      </c>
+      <c r="E32" t="s">
+        <v>805</v>
+      </c>
+      <c r="F32" s="595">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="594">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>496</v>
+      </c>
+      <c r="C33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D33" t="s">
+        <v>806</v>
+      </c>
+      <c r="E33" t="s">
+        <v>360</v>
+      </c>
+      <c r="F33" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="594">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>497</v>
+      </c>
+      <c r="C34" t="s">
+        <v>807</v>
+      </c>
+      <c r="D34" t="s">
+        <v>808</v>
+      </c>
+      <c r="E34" t="s">
+        <v>809</v>
+      </c>
+      <c r="F34" s="595">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="594">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>498</v>
+      </c>
+      <c r="C35" t="s">
+        <v>810</v>
+      </c>
+      <c r="D35" t="s">
+        <v>811</v>
+      </c>
+      <c r="E35" t="s">
+        <v>812</v>
+      </c>
+      <c r="F35" s="595">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="594">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>499</v>
+      </c>
+      <c r="C36" t="s">
+        <v>813</v>
+      </c>
+      <c r="D36" t="s">
+        <v>814</v>
+      </c>
+      <c r="E36" t="s">
+        <v>815</v>
+      </c>
+      <c r="F36" s="595">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="594">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>500</v>
+      </c>
+      <c r="C37" t="s">
+        <v>816</v>
+      </c>
+      <c r="D37" t="s">
+        <v>817</v>
+      </c>
+      <c r="E37" t="s">
+        <v>818</v>
+      </c>
+      <c r="F37" s="595">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="594">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C38" t="s">
+        <v>819</v>
+      </c>
+      <c r="D38" t="s">
+        <v>820</v>
+      </c>
+      <c r="E38" t="s">
+        <v>821</v>
+      </c>
+      <c r="F38" s="595">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="594">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39" t="s">
+        <v>822</v>
+      </c>
+      <c r="D39" t="s">
+        <v>823</v>
+      </c>
+      <c r="E39" t="s">
+        <v>824</v>
+      </c>
+      <c r="F39" s="595">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="594">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>503</v>
+      </c>
+      <c r="C40" t="s">
+        <v>825</v>
+      </c>
+      <c r="D40" t="s">
+        <v>826</v>
+      </c>
+      <c r="E40" t="s">
+        <v>815</v>
+      </c>
+      <c r="F40" s="595">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="594">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>504</v>
+      </c>
+      <c r="C41" t="s">
+        <v>827</v>
+      </c>
+      <c r="D41" t="s">
+        <v>828</v>
+      </c>
+      <c r="E41" t="s">
+        <v>829</v>
+      </c>
+      <c r="F41" s="595">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="594">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>505</v>
+      </c>
+      <c r="C42" t="s">
+        <v>830</v>
+      </c>
+      <c r="D42" t="s">
+        <v>831</v>
+      </c>
+      <c r="E42" t="s">
+        <v>832</v>
+      </c>
+      <c r="F42" s="595">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="594">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>506</v>
+      </c>
+      <c r="C43" t="s">
+        <v>833</v>
+      </c>
+      <c r="D43" t="s">
+        <v>834</v>
+      </c>
+      <c r="E43" t="s">
+        <v>835</v>
+      </c>
+      <c r="F43" s="595">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="594">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>507</v>
+      </c>
+      <c r="C44" t="s">
+        <v>836</v>
+      </c>
+      <c r="D44" t="s">
+        <v>837</v>
+      </c>
+      <c r="E44" t="s">
+        <v>838</v>
+      </c>
+      <c r="F44" s="595">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="594">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>508</v>
+      </c>
+      <c r="C45" t="s">
+        <v>839</v>
+      </c>
+      <c r="D45" t="s">
+        <v>840</v>
+      </c>
+      <c r="E45" t="s">
+        <v>361</v>
+      </c>
+      <c r="F45" s="595">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="594">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>509</v>
+      </c>
+      <c r="C46" t="s">
+        <v>841</v>
+      </c>
+      <c r="F46" s="595"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="594">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>510</v>
+      </c>
+      <c r="C47" t="s">
+        <v>842</v>
+      </c>
+      <c r="D47" t="s">
+        <v>843</v>
+      </c>
+      <c r="E47" t="s">
+        <v>844</v>
+      </c>
+      <c r="F47" s="595">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="594">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>511</v>
+      </c>
+      <c r="C48" t="s">
+        <v>845</v>
+      </c>
+      <c r="D48" t="s">
+        <v>846</v>
+      </c>
+      <c r="E48" t="s">
+        <v>847</v>
+      </c>
+      <c r="F48" s="595">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="594">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>512</v>
+      </c>
+      <c r="C49" t="s">
+        <v>848</v>
+      </c>
+      <c r="D49" t="s">
+        <v>848</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="594">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>513</v>
+      </c>
+      <c r="C50" t="s">
+        <v>849</v>
+      </c>
+      <c r="D50" t="s">
+        <v>850</v>
+      </c>
+      <c r="E50" t="s">
+        <v>851</v>
+      </c>
+      <c r="F50" s="595">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="594">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>514</v>
+      </c>
+      <c r="C51" t="s">
+        <v>852</v>
+      </c>
+      <c r="D51" t="s">
+        <v>853</v>
+      </c>
+      <c r="E51" t="s">
+        <v>854</v>
+      </c>
+      <c r="F51" s="595">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="594">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>515</v>
+      </c>
+      <c r="C52" t="s">
+        <v>855</v>
+      </c>
+      <c r="D52" t="s">
+        <v>856</v>
+      </c>
+      <c r="E52" t="s">
+        <v>857</v>
+      </c>
+      <c r="F52" s="595">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="594">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>516</v>
+      </c>
+      <c r="C53" t="s">
+        <v>858</v>
+      </c>
+      <c r="D53" t="s">
+        <v>859</v>
+      </c>
+      <c r="E53" t="s">
+        <v>860</v>
+      </c>
+      <c r="F53" s="595">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B54" t="s">
+        <v>517</v>
+      </c>
+      <c r="C54" t="s">
+        <v>861</v>
+      </c>
+      <c r="D54" t="s">
+        <v>862</v>
+      </c>
+      <c r="E54" t="s">
+        <v>863</v>
+      </c>
+      <c r="F54" s="595">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="594">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>518</v>
+      </c>
+      <c r="C55" t="s">
+        <v>864</v>
+      </c>
+      <c r="D55" t="s">
+        <v>865</v>
+      </c>
+      <c r="E55" t="s">
+        <v>866</v>
+      </c>
+      <c r="F55" s="595">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="594">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>519</v>
+      </c>
+      <c r="C56" t="s">
+        <v>867</v>
+      </c>
+      <c r="D56" t="s">
+        <v>868</v>
+      </c>
+      <c r="E56" t="s">
+        <v>869</v>
+      </c>
+      <c r="F56" s="595">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="594">
+        <v>51</v>
+      </c>
+      <c r="B57" t="s">
+        <v>520</v>
+      </c>
+      <c r="C57" t="s">
+        <v>870</v>
+      </c>
+      <c r="D57" t="s">
+        <v>871</v>
+      </c>
+      <c r="E57" t="s">
+        <v>872</v>
+      </c>
+      <c r="F57" s="595">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="594">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>521</v>
+      </c>
+      <c r="C58" t="s">
+        <v>873</v>
+      </c>
+      <c r="D58" t="s">
+        <v>874</v>
+      </c>
+      <c r="E58" t="s">
+        <v>875</v>
+      </c>
+      <c r="F58" s="595">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="594">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>522</v>
+      </c>
+      <c r="C59" t="s">
+        <v>876</v>
+      </c>
+      <c r="D59" t="s">
+        <v>877</v>
+      </c>
+      <c r="E59" t="s">
+        <v>878</v>
+      </c>
+      <c r="F59" s="595">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="594">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>523</v>
+      </c>
+      <c r="C60" t="s">
+        <v>879</v>
+      </c>
+      <c r="D60" t="s">
+        <v>879</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="594">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>524</v>
+      </c>
+      <c r="C61" t="s">
+        <v>880</v>
+      </c>
+      <c r="D61" t="s">
+        <v>881</v>
+      </c>
+      <c r="E61" t="s">
+        <v>882</v>
+      </c>
+      <c r="F61" s="595">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="594">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>525</v>
+      </c>
+      <c r="C62" t="s">
+        <v>883</v>
+      </c>
+      <c r="D62" t="s">
+        <v>884</v>
+      </c>
+      <c r="E62" t="s">
+        <v>885</v>
+      </c>
+      <c r="F62" s="595">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="594">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
+        <v>526</v>
+      </c>
+      <c r="C63" t="s">
+        <v>886</v>
+      </c>
+      <c r="D63" t="s">
+        <v>887</v>
+      </c>
+      <c r="E63" t="s">
+        <v>362</v>
+      </c>
+      <c r="F63" s="595">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="594">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
+        <v>527</v>
+      </c>
+      <c r="C64" t="s">
+        <v>888</v>
+      </c>
+      <c r="D64" t="s">
+        <v>889</v>
+      </c>
+      <c r="E64" t="s">
+        <v>363</v>
+      </c>
+      <c r="F64" s="595">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="594">
+        <v>59</v>
+      </c>
+      <c r="B65" t="s">
+        <v>528</v>
+      </c>
+      <c r="C65" t="s">
+        <v>890</v>
+      </c>
+      <c r="D65" t="s">
+        <v>891</v>
+      </c>
+      <c r="E65" t="s">
+        <v>892</v>
+      </c>
+      <c r="F65" s="595">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="594">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>529</v>
+      </c>
+      <c r="C66" t="s">
+        <v>893</v>
+      </c>
+      <c r="D66" t="s">
+        <v>894</v>
+      </c>
+      <c r="E66" t="s">
+        <v>895</v>
+      </c>
+      <c r="F66" s="595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="594">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>530</v>
+      </c>
+      <c r="C67" t="s">
+        <v>896</v>
+      </c>
+      <c r="D67" t="s">
+        <v>897</v>
+      </c>
+      <c r="E67" t="s">
+        <v>898</v>
+      </c>
+      <c r="F67" s="595">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="594">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>531</v>
+      </c>
+      <c r="C68" t="s">
+        <v>899</v>
+      </c>
+      <c r="D68" t="s">
+        <v>900</v>
+      </c>
+      <c r="E68" t="s">
+        <v>901</v>
+      </c>
+      <c r="F68" s="595">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="594">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C69" t="s">
+        <v>902</v>
+      </c>
+      <c r="D69" t="s">
+        <v>903</v>
+      </c>
+      <c r="E69" t="s">
+        <v>904</v>
+      </c>
+      <c r="F69" s="595">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="594">
+        <v>64</v>
+      </c>
+      <c r="B70" t="s">
+        <v>533</v>
+      </c>
+      <c r="C70" t="s">
+        <v>905</v>
+      </c>
+      <c r="D70" t="s">
+        <v>906</v>
+      </c>
+      <c r="E70" t="s">
+        <v>364</v>
+      </c>
+      <c r="F70" s="595">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="594">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>534</v>
+      </c>
+      <c r="C71" t="s">
+        <v>907</v>
+      </c>
+      <c r="D71" t="s">
+        <v>908</v>
+      </c>
+      <c r="E71" t="s">
+        <v>909</v>
+      </c>
+      <c r="F71" s="595">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="594">
+        <v>66</v>
+      </c>
+      <c r="B72" t="s">
+        <v>535</v>
+      </c>
+      <c r="C72" t="s">
+        <v>910</v>
+      </c>
+      <c r="D72" t="s">
+        <v>911</v>
+      </c>
+      <c r="E72" t="s">
+        <v>912</v>
+      </c>
+      <c r="F72" s="595">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="594">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>536</v>
+      </c>
+      <c r="C73" t="s">
+        <v>913</v>
+      </c>
+      <c r="D73" t="s">
+        <v>914</v>
+      </c>
+      <c r="E73" t="s">
+        <v>915</v>
+      </c>
+      <c r="F73" s="595">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B74" t="s">
+        <v>537</v>
+      </c>
+      <c r="C74" t="s">
+        <v>916</v>
+      </c>
+      <c r="D74" t="s">
+        <v>917</v>
+      </c>
+      <c r="E74" t="s">
+        <v>898</v>
+      </c>
+      <c r="F74" s="595">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="594">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>538</v>
+      </c>
+      <c r="C75" t="s">
+        <v>918</v>
+      </c>
+      <c r="D75" t="s">
+        <v>919</v>
+      </c>
+      <c r="E75" t="s">
+        <v>920</v>
+      </c>
+      <c r="F75" s="595">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="594">
+        <v>69</v>
+      </c>
+      <c r="B76" t="s">
+        <v>539</v>
+      </c>
+      <c r="C76" t="s">
+        <v>921</v>
+      </c>
+      <c r="D76" t="s">
+        <v>922</v>
+      </c>
+      <c r="E76" t="s">
+        <v>923</v>
+      </c>
+      <c r="F76" s="595">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="594">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>540</v>
+      </c>
+      <c r="C77" t="s">
+        <v>924</v>
+      </c>
+      <c r="D77" t="s">
+        <v>924</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="594">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>541</v>
+      </c>
+      <c r="C78" t="s">
+        <v>925</v>
+      </c>
+      <c r="D78" t="s">
+        <v>926</v>
+      </c>
+      <c r="E78" t="s">
+        <v>927</v>
+      </c>
+      <c r="F78" s="595">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="594">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>542</v>
+      </c>
+      <c r="C79" t="s">
+        <v>928</v>
+      </c>
+      <c r="D79" t="s">
+        <v>929</v>
+      </c>
+      <c r="E79" t="s">
+        <v>930</v>
+      </c>
+      <c r="F79" s="595">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="594">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C80" t="s">
+        <v>931</v>
+      </c>
+      <c r="D80" t="s">
+        <v>932</v>
+      </c>
+      <c r="E80" t="s">
+        <v>933</v>
+      </c>
+      <c r="F80" s="595">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="594">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>544</v>
+      </c>
+      <c r="C81" t="s">
+        <v>934</v>
+      </c>
+      <c r="D81" t="s">
+        <v>935</v>
+      </c>
+      <c r="E81" t="s">
+        <v>365</v>
+      </c>
+      <c r="F81" s="595">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="594">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>545</v>
+      </c>
+      <c r="C82" t="s">
+        <v>936</v>
+      </c>
+      <c r="D82" t="s">
+        <v>937</v>
+      </c>
+      <c r="E82" t="s">
+        <v>938</v>
+      </c>
+      <c r="F82" s="595">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="594">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>546</v>
+      </c>
+      <c r="C83" t="s">
+        <v>939</v>
+      </c>
+      <c r="D83" t="s">
+        <v>940</v>
+      </c>
+      <c r="E83" t="s">
+        <v>941</v>
+      </c>
+      <c r="F83" s="595">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B84" t="s">
+        <v>547</v>
+      </c>
+      <c r="C84" t="s">
+        <v>942</v>
+      </c>
+      <c r="D84" t="s">
+        <v>942</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="594">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>548</v>
+      </c>
+      <c r="C85" t="s">
+        <v>943</v>
+      </c>
+      <c r="D85" t="s">
+        <v>944</v>
+      </c>
+      <c r="E85" t="s">
+        <v>366</v>
+      </c>
+      <c r="F85" s="595">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="594">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s">
+        <v>549</v>
+      </c>
+      <c r="C86" t="s">
+        <v>945</v>
+      </c>
+      <c r="D86" t="s">
+        <v>946</v>
+      </c>
+      <c r="E86" t="s">
+        <v>947</v>
+      </c>
+      <c r="F86" s="595">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="594">
+        <v>79</v>
+      </c>
+      <c r="B87" t="s">
+        <v>550</v>
+      </c>
+      <c r="C87" t="s">
+        <v>948</v>
+      </c>
+      <c r="D87" t="s">
+        <v>949</v>
+      </c>
+      <c r="E87" t="s">
+        <v>950</v>
+      </c>
+      <c r="F87" s="595">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="594">
+        <v>80</v>
+      </c>
+      <c r="B88" t="s">
+        <v>551</v>
+      </c>
+      <c r="C88" t="s">
+        <v>951</v>
+      </c>
+      <c r="D88" t="s">
+        <v>952</v>
+      </c>
+      <c r="E88" t="s">
+        <v>953</v>
+      </c>
+      <c r="F88" s="595">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="594">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>552</v>
+      </c>
+      <c r="C89" t="s">
+        <v>954</v>
+      </c>
+      <c r="D89" t="s">
+        <v>955</v>
+      </c>
+      <c r="E89" t="s">
+        <v>956</v>
+      </c>
+      <c r="F89" s="595">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="594">
+        <v>82</v>
+      </c>
+      <c r="B90" t="s">
+        <v>553</v>
+      </c>
+      <c r="C90" t="s">
+        <v>957</v>
+      </c>
+      <c r="D90" t="s">
+        <v>958</v>
+      </c>
+      <c r="E90" t="s">
+        <v>809</v>
+      </c>
+      <c r="F90" s="595">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="594">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>554</v>
+      </c>
+      <c r="C91" t="s">
+        <v>959</v>
+      </c>
+      <c r="D91" t="s">
+        <v>960</v>
+      </c>
+      <c r="E91" t="s">
+        <v>961</v>
+      </c>
+      <c r="F91" s="595">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="594">
+        <v>84</v>
+      </c>
+      <c r="B92" t="s">
+        <v>555</v>
+      </c>
+      <c r="C92" t="s">
+        <v>962</v>
+      </c>
+      <c r="D92" t="s">
+        <v>963</v>
+      </c>
+      <c r="E92" t="s">
+        <v>964</v>
+      </c>
+      <c r="F92" s="595">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="594">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>556</v>
+      </c>
+      <c r="C93" t="s">
+        <v>965</v>
+      </c>
+      <c r="D93" t="s">
+        <v>966</v>
+      </c>
+      <c r="E93" t="s">
+        <v>967</v>
+      </c>
+      <c r="F93" s="595">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="594">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>557</v>
+      </c>
+      <c r="C94" t="s">
+        <v>968</v>
+      </c>
+      <c r="D94" t="s">
+        <v>969</v>
+      </c>
+      <c r="E94" t="s">
+        <v>970</v>
+      </c>
+      <c r="F94" s="595">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="594">
+        <v>87</v>
+      </c>
+      <c r="B95" t="s">
+        <v>558</v>
+      </c>
+      <c r="C95" t="s">
+        <v>971</v>
+      </c>
+      <c r="D95" t="s">
+        <v>972</v>
+      </c>
+      <c r="E95" t="s">
+        <v>973</v>
+      </c>
+      <c r="F95" s="595">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="594">
+        <v>88</v>
+      </c>
+      <c r="B96" t="s">
+        <v>559</v>
+      </c>
+      <c r="C96" t="s">
+        <v>974</v>
+      </c>
+      <c r="D96" t="s">
+        <v>975</v>
+      </c>
+      <c r="E96" t="s">
+        <v>976</v>
+      </c>
+      <c r="F96" s="595">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B97" t="s">
+        <v>560</v>
+      </c>
+      <c r="C97" t="s">
+        <v>977</v>
+      </c>
+      <c r="F97" s="595"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="594">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>561</v>
+      </c>
+      <c r="C98" t="s">
+        <v>978</v>
+      </c>
+      <c r="D98" t="s">
+        <v>979</v>
+      </c>
+      <c r="E98" t="s">
+        <v>980</v>
+      </c>
+      <c r="F98" s="595">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="594">
+        <v>90</v>
+      </c>
+      <c r="B99" t="s">
+        <v>562</v>
+      </c>
+      <c r="C99" t="s">
+        <v>981</v>
+      </c>
+      <c r="D99" t="s">
+        <v>982</v>
+      </c>
+      <c r="E99" t="s">
+        <v>983</v>
+      </c>
+      <c r="F99" s="595">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="594">
+        <v>91</v>
+      </c>
+      <c r="B100" t="s">
+        <v>563</v>
+      </c>
+      <c r="C100" t="s">
+        <v>984</v>
+      </c>
+      <c r="D100" t="s">
+        <v>985</v>
+      </c>
+      <c r="E100" t="s">
+        <v>986</v>
+      </c>
+      <c r="F100" s="595">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="594">
+        <v>92</v>
+      </c>
+      <c r="B101" t="s">
+        <v>564</v>
+      </c>
+      <c r="C101" t="s">
+        <v>987</v>
+      </c>
+      <c r="D101" t="s">
+        <v>988</v>
+      </c>
+      <c r="E101" t="s">
+        <v>989</v>
+      </c>
+      <c r="F101" s="595">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="594">
+        <v>93</v>
+      </c>
+      <c r="B102" t="s">
+        <v>565</v>
+      </c>
+      <c r="C102" t="s">
+        <v>990</v>
+      </c>
+      <c r="D102" t="s">
+        <v>991</v>
+      </c>
+      <c r="E102" t="s">
+        <v>992</v>
+      </c>
+      <c r="F102" s="595">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="594">
+        <v>94</v>
+      </c>
+      <c r="B103" t="s">
+        <v>566</v>
+      </c>
+      <c r="C103" t="s">
+        <v>993</v>
+      </c>
+      <c r="D103" t="s">
+        <v>994</v>
+      </c>
+      <c r="E103" t="s">
+        <v>995</v>
+      </c>
+      <c r="F103" s="595">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="594">
+        <v>95</v>
+      </c>
+      <c r="B104" t="s">
+        <v>567</v>
+      </c>
+      <c r="C104" t="s">
+        <v>996</v>
+      </c>
+      <c r="D104" t="s">
+        <v>997</v>
+      </c>
+      <c r="E104" t="s">
+        <v>998</v>
+      </c>
+      <c r="F104" s="595">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="594">
+        <v>96</v>
+      </c>
+      <c r="B105" t="s">
+        <v>568</v>
+      </c>
+      <c r="C105" t="s">
+        <v>999</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F105" s="595">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="594">
+        <v>97</v>
+      </c>
+      <c r="B106" t="s">
+        <v>569</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E106" t="s">
+        <v>367</v>
+      </c>
+      <c r="F106" s="595">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="594">
+        <v>98</v>
+      </c>
+      <c r="B107" t="s">
+        <v>570</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F107" s="595">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="594">
+        <v>99</v>
+      </c>
+      <c r="B108" t="s">
+        <v>571</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F108" s="595">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="594">
+        <v>100</v>
+      </c>
+      <c r="B109" t="s">
+        <v>572</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F109" s="595">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="594">
+        <v>101</v>
+      </c>
+      <c r="B110" t="s">
+        <v>573</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E110" t="s">
+        <v>368</v>
+      </c>
+      <c r="F110" s="595">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="594">
+        <v>102</v>
+      </c>
+      <c r="B111" t="s">
+        <v>574</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F111" s="595">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="594">
+        <v>103</v>
+      </c>
+      <c r="B112" t="s">
+        <v>575</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F112" s="595">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="594">
+        <v>104</v>
+      </c>
+      <c r="B113" t="s">
+        <v>576</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F113" s="595">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="594">
+        <v>105</v>
+      </c>
+      <c r="B114" t="s">
+        <v>577</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F114" s="595">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="594">
+        <v>106</v>
+      </c>
+      <c r="B115" t="s">
+        <v>578</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F115" s="595">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="594">
+        <v>107</v>
+      </c>
+      <c r="B116" t="s">
+        <v>579</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F116" s="595">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="594">
+        <v>108</v>
+      </c>
+      <c r="B117" t="s">
+        <v>580</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F117" s="595">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="594">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>581</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E118" t="s">
+        <v>369</v>
+      </c>
+      <c r="F118" s="595">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="594">
+        <v>110</v>
+      </c>
+      <c r="B119" t="s">
+        <v>582</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E119" t="s">
+        <v>370</v>
+      </c>
+      <c r="F119" s="595">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="594">
+        <v>111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>583</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="594">
+        <v>112</v>
+      </c>
+      <c r="B121" t="s">
+        <v>584</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F121" s="595">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="594">
+        <v>113</v>
+      </c>
+      <c r="B122" t="s">
+        <v>585</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F122" s="595">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="594">
+        <v>114</v>
+      </c>
+      <c r="B123" t="s">
+        <v>586</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E123" t="s">
+        <v>371</v>
+      </c>
+      <c r="F123" s="595">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="594">
+        <v>115</v>
+      </c>
+      <c r="B124" t="s">
+        <v>587</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F124" s="595">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="594">
+        <v>116</v>
+      </c>
+      <c r="B125" t="s">
+        <v>588</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F125" s="595">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="594">
+        <v>117</v>
+      </c>
+      <c r="B126" t="s">
+        <v>589</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E126" t="s">
+        <v>372</v>
+      </c>
+      <c r="F126" s="595">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="594">
+        <v>118</v>
+      </c>
+      <c r="B127" t="s">
+        <v>590</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F127" s="595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="594">
+        <v>119</v>
+      </c>
+      <c r="B128" t="s">
+        <v>591</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E128" t="s">
+        <v>373</v>
+      </c>
+      <c r="F128" s="595">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" s="594">
+        <v>120</v>
+      </c>
+      <c r="B129" t="s">
+        <v>592</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F129" s="595">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" s="594">
+        <v>121</v>
+      </c>
+      <c r="B130" t="s">
+        <v>593</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F130" s="595">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" s="594">
+        <v>122</v>
+      </c>
+      <c r="B131" t="s">
+        <v>594</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F131" s="595">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B132" t="s">
+        <v>595</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="594">
+        <v>123</v>
+      </c>
+      <c r="B133" t="s">
+        <v>596</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F133" s="595">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" s="594">
+        <v>124</v>
+      </c>
+      <c r="B134" t="s">
+        <v>597</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E134" t="s">
+        <v>369</v>
+      </c>
+      <c r="F134" s="595">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" s="594">
+        <v>125</v>
+      </c>
+      <c r="B135" t="s">
+        <v>598</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E135" t="s">
+        <v>374</v>
+      </c>
+      <c r="F135" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" s="594">
+        <v>126</v>
+      </c>
+      <c r="B136" t="s">
+        <v>599</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E136" t="s">
+        <v>375</v>
+      </c>
+      <c r="F136" s="595">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" s="594">
+        <v>127</v>
+      </c>
+      <c r="B137" t="s">
+        <v>600</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E137" t="s">
+        <v>363</v>
+      </c>
+      <c r="F137" s="595">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" s="594">
+        <v>128</v>
+      </c>
+      <c r="B138" t="s">
+        <v>601</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E138" t="s">
+        <v>376</v>
+      </c>
+      <c r="F138" s="595">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" s="594">
+        <v>129</v>
+      </c>
+      <c r="B139" t="s">
+        <v>602</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F139" s="595">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" s="594">
+        <v>130</v>
+      </c>
+      <c r="B140" t="s">
+        <v>603</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E140" t="s">
+        <v>358</v>
+      </c>
+      <c r="F140" s="595">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" s="594">
+        <v>131</v>
+      </c>
+      <c r="B141" t="s">
+        <v>604</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F141" s="595">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" s="594">
+        <v>132</v>
+      </c>
+      <c r="B142" t="s">
+        <v>605</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F142" s="595">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" s="594">
+        <v>133</v>
+      </c>
+      <c r="B143" t="s">
+        <v>606</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E143" t="s">
+        <v>362</v>
+      </c>
+      <c r="F143" s="595">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" s="594">
+        <v>134</v>
+      </c>
+      <c r="B144" t="s">
+        <v>607</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F144" s="595">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B145" t="s">
+        <v>608</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F145" s="595">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="594">
+        <v>135</v>
+      </c>
+      <c r="B146" t="s">
+        <v>609</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E146" t="s">
+        <v>377</v>
+      </c>
+      <c r="F146" s="595">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="594">
+        <v>136</v>
+      </c>
+      <c r="B147" t="s">
+        <v>610</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E147" t="s">
+        <v>362</v>
+      </c>
+      <c r="F147" s="595">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="594">
+        <v>137</v>
+      </c>
+      <c r="B148" t="s">
+        <v>611</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="594">
+        <v>138</v>
+      </c>
+      <c r="B149" t="s">
+        <v>612</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F149" s="595">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A150" s="594">
+        <v>139</v>
+      </c>
+      <c r="B150" t="s">
+        <v>613</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E150" t="s">
+        <v>378</v>
+      </c>
+      <c r="F150" s="595">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A151" s="594">
+        <v>140</v>
+      </c>
+      <c r="B151" t="s">
+        <v>614</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E151" t="s">
+        <v>379</v>
+      </c>
+      <c r="F151" s="595">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A152" s="594">
+        <v>141</v>
+      </c>
+      <c r="B152" t="s">
+        <v>615</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A153" s="594">
+        <v>142</v>
+      </c>
+      <c r="B153" t="s">
+        <v>616</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F153" s="595">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A154" s="594">
+        <v>143</v>
+      </c>
+      <c r="B154" t="s">
+        <v>617</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E154" t="s">
+        <v>380</v>
+      </c>
+      <c r="F154" s="595">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A155" s="594">
+        <v>144</v>
+      </c>
+      <c r="B155" t="s">
+        <v>618</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F155" s="595">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A156" s="594">
+        <v>145</v>
+      </c>
+      <c r="B156" t="s">
+        <v>619</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D156" t="s">
+        <v>821</v>
+      </c>
+      <c r="E156" t="s">
+        <v>381</v>
+      </c>
+      <c r="F156" s="595">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A157" s="594">
+        <v>146</v>
+      </c>
+      <c r="B157" t="s">
+        <v>620</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E157" t="s">
+        <v>382</v>
+      </c>
+      <c r="F157" s="595">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A158" s="594">
+        <v>147</v>
+      </c>
+      <c r="B158" t="s">
+        <v>621</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E158" t="s">
+        <v>383</v>
+      </c>
+      <c r="F158" s="595">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A159" s="594">
+        <v>148</v>
+      </c>
+      <c r="B159" t="s">
+        <v>622</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E159" t="s">
+        <v>384</v>
+      </c>
+      <c r="F159" s="595">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A160" s="594">
+        <v>149</v>
+      </c>
+      <c r="B160" t="s">
+        <v>623</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E160" t="s">
+        <v>385</v>
+      </c>
+      <c r="F160" s="595">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A161" s="594">
+        <v>150</v>
+      </c>
+      <c r="B161" t="s">
+        <v>624</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E161" t="s">
+        <v>386</v>
+      </c>
+      <c r="F161" s="595">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A162" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B162" t="s">
+        <v>625</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E162" t="s">
+        <v>359</v>
+      </c>
+      <c r="F162" s="595">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A163" s="594">
+        <v>151</v>
+      </c>
+      <c r="B163" t="s">
+        <v>626</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A164" s="594">
+        <v>152</v>
+      </c>
+      <c r="B164" t="s">
+        <v>627</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A165" s="594">
+        <v>153</v>
+      </c>
+      <c r="B165" t="s">
+        <v>628</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E165" t="s">
+        <v>383</v>
+      </c>
+      <c r="F165" s="595">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A166" s="594">
+        <v>154</v>
+      </c>
+      <c r="B166" t="s">
+        <v>629</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A167" s="594">
+        <v>155</v>
+      </c>
+      <c r="B167" t="s">
+        <v>630</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F167" s="595">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A168" s="594">
+        <v>156</v>
+      </c>
+      <c r="B168" t="s">
+        <v>631</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E168" t="s">
+        <v>387</v>
+      </c>
+      <c r="F168" s="595">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A169" s="594">
+        <v>157</v>
+      </c>
+      <c r="B169" t="s">
+        <v>632</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A170" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B170" t="s">
+        <v>633</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A171" s="594">
+        <v>158</v>
+      </c>
+      <c r="B171" t="s">
+        <v>634</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A172" s="594">
+        <v>159</v>
+      </c>
+      <c r="B172" t="s">
+        <v>635</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F172" s="595">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A173" s="594">
+        <v>160</v>
+      </c>
+      <c r="B173" t="s">
+        <v>636</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E173" t="s">
+        <v>383</v>
+      </c>
+      <c r="F173" s="595">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A174" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B174" t="s">
+        <v>637</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A175" s="594">
+        <v>161</v>
+      </c>
+      <c r="B175" t="s">
+        <v>638</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E175" t="s">
+        <v>388</v>
+      </c>
+      <c r="F175" s="595">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A176" s="594">
+        <v>162</v>
+      </c>
+      <c r="B176" t="s">
+        <v>639</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E176" t="s">
+        <v>374</v>
+      </c>
+      <c r="F176" s="595">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A177" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B177" t="s">
+        <v>640</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E177" t="s">
+        <v>389</v>
+      </c>
+      <c r="F177" s="595">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A178" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" t="s">
+        <v>641</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F178" s="595"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A179" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B179" t="s">
+        <v>642</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E179" t="s">
+        <v>390</v>
+      </c>
+      <c r="F179" s="595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A180" s="594">
+        <v>163</v>
+      </c>
+      <c r="B180" t="s">
+        <v>643</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A181" s="594">
+        <v>164</v>
+      </c>
+      <c r="B181" t="s">
+        <v>644</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E181" t="s">
+        <v>364</v>
+      </c>
+      <c r="F181" s="595">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A182" s="594">
+        <v>165</v>
+      </c>
+      <c r="B182" t="s">
+        <v>645</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A183" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" t="s">
+        <v>646</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E183" t="s">
+        <v>391</v>
+      </c>
+      <c r="F183" s="595">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A184" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B184" t="s">
+        <v>647</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F184" s="595"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A185" s="594">
+        <v>166</v>
+      </c>
+      <c r="B185" t="s">
+        <v>648</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A186" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B186" t="s">
+        <v>649</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A187" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B187" t="s">
+        <v>650</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F187" s="595"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A188" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B188" t="s">
+        <v>651</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F188" s="595"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A189" s="594">
+        <v>167</v>
+      </c>
+      <c r="B189" t="s">
+        <v>652</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" s="595">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A190" s="594">
+        <v>168</v>
+      </c>
+      <c r="B190" t="s">
+        <v>653</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E190" t="s">
+        <v>392</v>
+      </c>
+      <c r="F190" s="595">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A191" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B191" t="s">
+        <v>654</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A192" s="594">
+        <v>169</v>
+      </c>
+      <c r="B192" t="s">
+        <v>655</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" s="595">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A193" s="594">
+        <v>170</v>
+      </c>
+      <c r="B193" t="s">
+        <v>656</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A194" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B194" t="s">
+        <v>657</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E194" t="s">
+        <v>393</v>
+      </c>
+      <c r="F194" s="595">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A195" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B195" t="s">
+        <v>658</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A196" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B196" t="s">
+        <v>659</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E196" t="s">
+        <v>394</v>
+      </c>
+      <c r="F196" s="595">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A197" s="594">
+        <v>171</v>
+      </c>
+      <c r="B197" t="s">
+        <v>660</v>
+      </c>
+      <c r="C197" t="s">
+        <v>395</v>
+      </c>
+      <c r="D197" t="s">
+        <v>395</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A198" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B198" t="s">
+        <v>661</v>
+      </c>
+      <c r="C198" t="s">
+        <v>396</v>
+      </c>
+      <c r="D198" t="s">
+        <v>396</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A199" s="594">
+        <v>172</v>
+      </c>
+      <c r="B199" t="s">
+        <v>662</v>
+      </c>
+      <c r="C199" t="s">
+        <v>397</v>
+      </c>
+      <c r="D199" t="s">
+        <v>397</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A200" s="594">
+        <v>173</v>
+      </c>
+      <c r="B200" t="s">
+        <v>663</v>
+      </c>
+      <c r="C200" t="s">
+        <v>398</v>
+      </c>
+      <c r="D200" t="s">
+        <v>398</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A201" s="594">
+        <v>174</v>
+      </c>
+      <c r="B201" t="s">
+        <v>664</v>
+      </c>
+      <c r="C201" t="s">
+        <v>399</v>
+      </c>
+      <c r="D201" t="s">
+        <v>399</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A202" s="594">
+        <v>175</v>
+      </c>
+      <c r="B202" t="s">
+        <v>665</v>
+      </c>
+      <c r="C202" t="s">
+        <v>400</v>
+      </c>
+      <c r="D202" t="s">
+        <v>371</v>
+      </c>
+      <c r="E202" t="s">
+        <v>401</v>
+      </c>
+      <c r="F202" s="595">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A203" s="594">
+        <v>176</v>
+      </c>
+      <c r="B203" t="s">
+        <v>666</v>
+      </c>
+      <c r="C203" t="s">
+        <v>402</v>
+      </c>
+      <c r="D203" t="s">
+        <v>403</v>
+      </c>
+      <c r="E203" t="s">
+        <v>374</v>
+      </c>
+      <c r="F203" s="595">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A204" s="594">
+        <v>177</v>
+      </c>
+      <c r="B204" t="s">
+        <v>667</v>
+      </c>
+      <c r="C204" t="s">
+        <v>404</v>
+      </c>
+      <c r="D204" t="s">
+        <v>405</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A205" s="594">
+        <v>178</v>
+      </c>
+      <c r="B205" t="s">
+        <v>668</v>
+      </c>
+      <c r="C205" t="s">
+        <v>406</v>
+      </c>
+      <c r="D205" t="s">
+        <v>407</v>
+      </c>
+      <c r="E205" t="s">
+        <v>374</v>
+      </c>
+      <c r="F205" s="595">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A206" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B206" t="s">
+        <v>669</v>
+      </c>
+      <c r="C206" t="s">
+        <v>408</v>
+      </c>
+      <c r="D206" t="s">
+        <v>409</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A207" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B207" t="s">
+        <v>670</v>
+      </c>
+      <c r="C207" t="s">
+        <v>410</v>
+      </c>
+      <c r="D207" t="s">
+        <v>411</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A208" s="594">
+        <v>179</v>
+      </c>
+      <c r="B208" t="s">
+        <v>671</v>
+      </c>
+      <c r="C208" t="s">
+        <v>412</v>
+      </c>
+      <c r="D208" t="s">
+        <v>412</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A209" s="594">
+        <v>180</v>
+      </c>
+      <c r="B209" t="s">
+        <v>672</v>
+      </c>
+      <c r="C209" t="s">
+        <v>413</v>
+      </c>
+      <c r="D209" t="s">
+        <v>413</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A210" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B210" t="s">
+        <v>673</v>
+      </c>
+      <c r="C210" t="s">
+        <v>414</v>
+      </c>
+      <c r="D210" t="s">
+        <v>414</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A211" s="594">
+        <v>181</v>
+      </c>
+      <c r="B211" t="s">
+        <v>674</v>
+      </c>
+      <c r="C211" t="s">
+        <v>414</v>
+      </c>
+      <c r="D211" t="s">
+        <v>414</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A212" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B212" t="s">
+        <v>675</v>
+      </c>
+      <c r="C212" t="s">
+        <v>415</v>
+      </c>
+      <c r="D212" t="s">
+        <v>415</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A213" s="594">
+        <v>182</v>
+      </c>
+      <c r="B213" t="s">
+        <v>676</v>
+      </c>
+      <c r="C213" t="s">
+        <v>416</v>
+      </c>
+      <c r="D213" t="s">
+        <v>416</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A214" s="594">
+        <v>183</v>
+      </c>
+      <c r="B214" t="s">
+        <v>677</v>
+      </c>
+      <c r="C214" t="s">
+        <v>417</v>
+      </c>
+      <c r="D214" t="s">
+        <v>417</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A215" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B215" t="s">
+        <v>678</v>
+      </c>
+      <c r="C215" t="s">
+        <v>418</v>
+      </c>
+      <c r="D215" t="s">
+        <v>418</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A216" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C216" t="s">
+        <v>419</v>
+      </c>
+      <c r="D216" t="s">
+        <v>419</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A217" s="594">
+        <v>184</v>
+      </c>
+      <c r="B217" t="s">
+        <v>679</v>
+      </c>
+      <c r="C217" t="s">
+        <v>420</v>
+      </c>
+      <c r="D217" t="s">
+        <v>420</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A218" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B218" t="s">
+        <v>680</v>
+      </c>
+      <c r="C218" t="s">
+        <v>421</v>
+      </c>
+      <c r="D218" t="s">
+        <v>421</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A219" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B219" t="s">
+        <v>681</v>
+      </c>
+      <c r="C219" t="s">
+        <v>422</v>
+      </c>
+      <c r="D219" t="s">
+        <v>422</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A220" s="594">
+        <v>185</v>
+      </c>
+      <c r="B220" t="s">
+        <v>682</v>
+      </c>
+      <c r="C220" t="s">
+        <v>423</v>
+      </c>
+      <c r="D220" t="s">
+        <v>391</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A221" s="594">
+        <v>186</v>
+      </c>
+      <c r="B221" t="s">
+        <v>683</v>
+      </c>
+      <c r="C221" t="s">
+        <v>424</v>
+      </c>
+      <c r="D221" t="s">
+        <v>424</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A222" s="594">
+        <v>187</v>
+      </c>
+      <c r="B222" t="s">
+        <v>684</v>
+      </c>
+      <c r="C222" t="s">
+        <v>359</v>
+      </c>
+      <c r="D222" t="s">
+        <v>359</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A223" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B223" t="s">
+        <v>685</v>
+      </c>
+      <c r="C223" t="s">
+        <v>425</v>
+      </c>
+      <c r="D223" t="s">
+        <v>425</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A224" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B224" t="s">
+        <v>686</v>
+      </c>
+      <c r="C224" t="s">
+        <v>426</v>
+      </c>
+      <c r="D224" t="s">
+        <v>427</v>
+      </c>
+      <c r="E224" t="s">
+        <v>428</v>
+      </c>
+      <c r="F224" s="595">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A225" s="594">
+        <v>188</v>
+      </c>
+      <c r="B225" t="s">
+        <v>687</v>
+      </c>
+      <c r="C225" t="s">
+        <v>429</v>
+      </c>
+      <c r="D225" t="s">
+        <v>429</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A226" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B226" t="s">
+        <v>688</v>
+      </c>
+      <c r="C226" t="s">
+        <v>430</v>
+      </c>
+      <c r="D226" t="s">
+        <v>430</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A227" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B227" t="s">
+        <v>689</v>
+      </c>
+      <c r="C227" t="s">
+        <v>431</v>
+      </c>
+      <c r="F227" s="595"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A228" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B228" t="s">
+        <v>690</v>
+      </c>
+      <c r="C228" t="s">
+        <v>432</v>
+      </c>
+      <c r="D228" t="s">
+        <v>433</v>
+      </c>
+      <c r="E228" t="s">
+        <v>374</v>
+      </c>
+      <c r="F228" s="595">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A229" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B229" t="s">
+        <v>691</v>
+      </c>
+      <c r="C229" t="s">
+        <v>434</v>
+      </c>
+      <c r="D229" t="s">
+        <v>434</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A230" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B230" t="s">
+        <v>692</v>
+      </c>
+      <c r="C230" t="s">
+        <v>435</v>
+      </c>
+      <c r="D230" t="s">
+        <v>435</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A231" s="594">
+        <v>189</v>
+      </c>
+      <c r="B231" t="s">
+        <v>693</v>
+      </c>
+      <c r="C231" t="s">
+        <v>436</v>
+      </c>
+      <c r="D231" t="s">
+        <v>437</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A232" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B232" t="s">
+        <v>694</v>
+      </c>
+      <c r="C232" t="s">
+        <v>437</v>
+      </c>
+      <c r="D232" t="s">
+        <v>437</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A233" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B233" t="s">
+        <v>695</v>
+      </c>
+      <c r="C233" t="s">
+        <v>438</v>
+      </c>
+      <c r="D233" t="s">
+        <v>438</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A234" s="594">
+        <v>190</v>
+      </c>
+      <c r="B234" t="s">
+        <v>696</v>
+      </c>
+      <c r="C234" t="s">
+        <v>383</v>
+      </c>
+      <c r="D234" t="s">
+        <v>383</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A235" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B235" t="s">
+        <v>697</v>
+      </c>
+      <c r="C235" t="s">
+        <v>439</v>
+      </c>
+      <c r="D235" t="s">
+        <v>439</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A236" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B236" t="s">
+        <v>698</v>
+      </c>
+      <c r="C236" t="s">
+        <v>440</v>
+      </c>
+      <c r="D236" t="s">
+        <v>440</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A237" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B237" t="s">
+        <v>699</v>
+      </c>
+      <c r="C237" t="s">
+        <v>441</v>
+      </c>
+      <c r="D237" t="s">
+        <v>441</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A238" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B238" t="s">
+        <v>700</v>
+      </c>
+      <c r="C238" t="s">
+        <v>442</v>
+      </c>
+      <c r="D238" t="s">
+        <v>442</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A239" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B239" t="s">
+        <v>701</v>
+      </c>
+      <c r="C239" t="s">
+        <v>443</v>
+      </c>
+      <c r="D239" t="s">
+        <v>444</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A240" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B240" t="s">
+        <v>702</v>
+      </c>
+      <c r="C240" t="s">
+        <v>445</v>
+      </c>
+      <c r="D240" t="s">
+        <v>445</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A241" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B241" t="s">
+        <v>703</v>
+      </c>
+      <c r="C241" t="s">
+        <v>446</v>
+      </c>
+      <c r="D241" t="s">
+        <v>446</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A242" s="594">
+        <v>191</v>
+      </c>
+      <c r="B242" t="s">
+        <v>704</v>
+      </c>
+      <c r="C242" t="s">
+        <v>447</v>
+      </c>
+      <c r="D242" t="s">
+        <v>447</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A243" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B243" t="s">
+        <v>705</v>
+      </c>
+      <c r="C243" t="s">
+        <v>394</v>
+      </c>
+      <c r="D243" t="s">
+        <v>394</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A244" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B244" t="s">
+        <v>706</v>
+      </c>
+      <c r="C244" t="s">
+        <v>448</v>
+      </c>
+      <c r="D244" t="s">
+        <v>448</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A245" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B245" t="s">
+        <v>707</v>
+      </c>
+      <c r="C245" t="s">
+        <v>449</v>
+      </c>
+      <c r="D245" t="s">
+        <v>449</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A246" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B246" t="s">
+        <v>708</v>
+      </c>
+      <c r="C246" t="s">
+        <v>450</v>
+      </c>
+      <c r="D246" t="s">
+        <v>450</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A247" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B247" t="s">
+        <v>709</v>
+      </c>
+      <c r="C247" t="s">
+        <v>451</v>
+      </c>
+      <c r="D247" t="s">
+        <v>451</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A248" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B248" t="s">
+        <v>710</v>
+      </c>
+      <c r="C248" t="s">
+        <v>452</v>
+      </c>
+      <c r="D248" t="s">
+        <v>452</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A249" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B249" t="s">
+        <v>711</v>
+      </c>
+      <c r="C249" t="s">
+        <v>453</v>
+      </c>
+      <c r="D249" t="s">
+        <v>453</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A250" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C250" t="s">
+        <v>453</v>
+      </c>
+      <c r="D250" t="s">
+        <v>453</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A251" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B251" t="s">
+        <v>712</v>
+      </c>
+      <c r="C251" t="s">
+        <v>454</v>
+      </c>
+      <c r="D251" t="s">
+        <v>454</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A252" s="594">
+        <v>192</v>
+      </c>
+      <c r="B252" t="s">
+        <v>713</v>
+      </c>
+      <c r="C252" t="s">
+        <v>455</v>
+      </c>
+      <c r="D252" t="s">
+        <v>455</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A253" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B253" t="s">
+        <v>714</v>
+      </c>
+      <c r="C253" t="s">
+        <v>456</v>
+      </c>
+      <c r="D253" t="s">
+        <v>382</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A254" s="594">
+        <v>193</v>
+      </c>
+      <c r="B254" t="s">
+        <v>715</v>
+      </c>
+      <c r="C254" t="s">
+        <v>457</v>
+      </c>
+      <c r="D254" t="s">
+        <v>382</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A255" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B255" t="s">
+        <v>716</v>
+      </c>
+      <c r="C255" t="s">
+        <v>457</v>
+      </c>
+      <c r="F255" s="595"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A256" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B256" t="s">
+        <v>717</v>
+      </c>
+      <c r="C256" t="s">
+        <v>458</v>
+      </c>
+      <c r="D256" t="s">
+        <v>458</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A257" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B257" t="s">
+        <v>718</v>
+      </c>
+      <c r="C257" t="s">
+        <v>459</v>
+      </c>
+      <c r="F257" s="595"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A258" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B258" t="s">
+        <v>719</v>
+      </c>
+      <c r="C258" t="s">
+        <v>460</v>
+      </c>
+      <c r="D258" t="s">
+        <v>460</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A259" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B259" t="s">
+        <v>720</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A260" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B260" t="s">
+        <v>721</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F260" s="595">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A261" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B261" t="s">
+        <v>722</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A262" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B262" t="s">
+        <v>723</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A263" s="594" t="s">
+        <v>357</v>
+      </c>
+      <c r="B263" t="s">
+        <v>724</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A264" s="594">
+        <v>194</v>
+      </c>
+      <c r="B264" t="s">
+        <v>725</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264" s="595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A265" s="594">
+        <v>195</v>
+      </c>
+      <c r="B265" t="s">
+        <v>726</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265" s="595">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
@@ -9395,17 +18713,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="593" t="s">
+      <c r="A1" s="597" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="593"/>
+      <c r="B1" s="597"/>
       <c r="C1" s="417" t="s">
         <v>341</v>
       </c>
@@ -9414,11 +18732,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="594" t="s">
+      <c r="A2" s="598" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595" t="s">
+      <c r="B2" s="598"/>
+      <c r="C2" s="599" t="s">
         <v>316</v>
       </c>
       <c r="D2" s="417" t="s">
@@ -9426,16 +18744,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="594"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
+      <c r="A3" s="598"/>
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
       <c r="D3" s="417" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="594"/>
-      <c r="B4" s="594"/>
+      <c r="A4" s="598"/>
+      <c r="B4" s="598"/>
       <c r="C4" s="417" t="s">
         <v>341</v>
       </c>
@@ -9447,10 +18765,10 @@
       <c r="A5" s="417" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="593" t="s">
+      <c r="B5" s="597" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="593"/>
+      <c r="C5" s="597"/>
       <c r="D5" s="417" t="s">
         <v>341</v>
       </c>
@@ -9471,12 +18789,12 @@
     </row>
     <row r="8" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="596" t="s">
+      <c r="A9" s="600" t="s">
         <v>355</v>
       </c>
-      <c r="B9" s="597"/>
-      <c r="C9" s="597"/>
-      <c r="D9" s="598"/>
+      <c r="B9" s="601"/>
+      <c r="C9" s="601"/>
+      <c r="D9" s="602"/>
     </row>
   </sheetData>
   <mergeCells count="5">
